--- a/ofc/estimates/kurthali truss/Valuated (Autosaved).xlsx
+++ b/ofc/estimates/kurthali truss/Valuated (Autosaved).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\kurthali truss\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8424" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="18" state="hidden" r:id="rId1"/>
@@ -42,24 +42,24 @@
     <definedName name="adopted_rate_water">[1]District_Rate!$L$129</definedName>
     <definedName name="concrete_mixer">[1]Equipment_Rate!$J$10</definedName>
     <definedName name="description_1">[2]Abstract!$B$167</definedName>
-    <definedName name="description_103">[7]Abstract!$B$16</definedName>
+    <definedName name="description_103">[3]Abstract!$B$16</definedName>
     <definedName name="description_124" localSheetId="4">#REF!</definedName>
-    <definedName name="description_124">[3]Abstract!$B$18</definedName>
+    <definedName name="description_124">[4]Abstract!$B$18</definedName>
     <definedName name="description_2">[2]Abstract!$B$168</definedName>
-    <definedName name="description_247">[7]Abstract!$B$22</definedName>
-    <definedName name="description_248">[7]Abstract!$B$23</definedName>
-    <definedName name="description_261">[4]Abstract!$B$33</definedName>
-    <definedName name="description_262" localSheetId="4">[7]Abstract!$B$34</definedName>
-    <definedName name="description_262">[5]Abstract!$B$34</definedName>
-    <definedName name="description_3">[7]Abstract!$B$169</definedName>
-    <definedName name="description_310">[8]Abstract!$B$60</definedName>
-    <definedName name="description_312">[9]Abstract!$B$61</definedName>
-    <definedName name="description_5">[7]Abstract!$B$171</definedName>
-    <definedName name="description_6" localSheetId="4">[8]Abstract!$B$172</definedName>
+    <definedName name="description_247">[3]Abstract!$B$22</definedName>
+    <definedName name="description_248">[3]Abstract!$B$23</definedName>
+    <definedName name="description_261">[5]Abstract!$B$33</definedName>
+    <definedName name="description_262" localSheetId="4">[3]Abstract!$B$34</definedName>
+    <definedName name="description_262">[6]Abstract!$B$34</definedName>
+    <definedName name="description_3">[3]Abstract!$B$169</definedName>
+    <definedName name="description_310">[7]Abstract!$B$60</definedName>
+    <definedName name="description_312">[8]Abstract!$B$61</definedName>
+    <definedName name="description_5">[3]Abstract!$B$171</definedName>
+    <definedName name="description_6" localSheetId="4">[7]Abstract!$B$172</definedName>
     <definedName name="description_6">[2]Abstract!$B$172</definedName>
-    <definedName name="description_759">[7]Abstract!$B$278</definedName>
-    <definedName name="description_781">[10]Abstract!$B$299</definedName>
-    <definedName name="description_783">[7]Abstract!$B$301</definedName>
+    <definedName name="description_759">[3]Abstract!$B$278</definedName>
+    <definedName name="description_781">[9]Abstract!$B$299</definedName>
+    <definedName name="description_783">[3]Abstract!$B$301</definedName>
     <definedName name="description_784">[2]Abstract!$B$300</definedName>
     <definedName name="excavator">[1]Equipment_Rate!$J$19</definedName>
     <definedName name="generator">[1]Equipment_Rate!$J$20</definedName>
@@ -79,7 +79,6 @@
     <definedName name="unskilled">[1]District_Rate!$D$156</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -89,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="94">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -354,14 +353,32 @@
   <si>
     <t>Total Valuated</t>
   </si>
+  <si>
+    <t>0deduction for footing</t>
+  </si>
+  <si>
+    <t>-flooring</t>
+  </si>
+  <si>
+    <t>-upto tie beam</t>
+  </si>
+  <si>
+    <t>deduction for post</t>
+  </si>
+  <si>
+    <t>-deduction for footing</t>
+  </si>
+  <si>
+    <t>Providing and laying of hand pack locally available Stone soling with 150 to 200 mm thick stones and packing with smaller stone on prepared surface as per Drawing and Technical Specifications.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -561,20 +578,20 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,7 +599,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -599,7 +616,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -608,7 +625,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -620,7 +637,7 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -664,7 +681,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -690,7 +707,7 @@
     <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -711,27 +728,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -744,13 +745,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -768,20 +791,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -936,56 +956,42 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Datasheet"/>
-      <sheetName val="Abstract"/>
-      <sheetName val="Quantity_Sheet"/>
-      <sheetName val="District_Rate"/>
-      <sheetName val="Equipment_Rate"/>
-      <sheetName val="Summary_of_Rates"/>
-      <sheetName val="rate (roadway)"/>
-      <sheetName val="manhole"/>
-      <sheetName val="bistar"/>
-      <sheetName val="Rate_Analysis"/>
-      <sheetName val="DWC pipe Rate-analysis"/>
+      <sheetName val="re-estimate"/>
+      <sheetName val="grill item changed"/>
+      <sheetName val="callapsible gate added"/>
+      <sheetName val="WCR"/>
+      <sheetName val="V"/>
       <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Sheet4"/>
-      <sheetName val="Loading_Unloading"/>
-      <sheetName val="Collection"/>
-      <sheetName val="Transportation"/>
-      <sheetName val="References"/>
-      <sheetName val="BOQ"/>
-      <sheetName val="PPMO_BOQ"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="299">
-          <cell r="B299" t="str">
-            <v>Random Rubble Masonry, Providing and laying of Stone Masonry Work in Cement Mortar 1:4 in Foundation complete as per Drawing and Technical Specifications.</v>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Project:- राष्ट्रिय मा. बि. वाल निर्माण</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Location:- Shankharapur Municipality 9</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106" t="str">
+            <v>VAT calculation</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="13">
+          <cell r="G13">
+            <v>2.1729629996843562</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1097,33 +1103,68 @@
       <sheetName val="PPMO_BOQ"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>Dismantling of existing structures like culverts, bridges, retaining walls and other structure comprising of masonry, cement concrete, wood work, steel work, including scaffolding wherever necessary, sorting the dismantled Material, disposal of unserviceable Material and stacking the serviceable Material with all lifts and lead of 1000 meters, Dismantling Brick / Tile work, In cement mortar</v>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1">
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>Clearing and Grubbing Road Land ., Clearing and grubbing road land including uprooting rank vegetation, grass, bushes, shrubs, saplings and trees girth up to 300 mm, removal of stumps of trees cut earlier and disposal of unserviceable materials and stacking of serviceable Material to be used or auctioned, up to a lead of 30 meters including removal and disposal of top organic soil not exceeding 150 mm in thickness., By Mechanical Means, In area of light jungle (less than 15 number per 100 sqm )</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>Providing and Laying Reinforced cement concrete NP3 Flush jointed pipe for culverts including fixing with cement mortar 1:2 as per Drawing and Technical Specifications., 450 mm  internal dia.</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>Providing and Laying Reinforced cement concrete NP3 Flush jointed pipe for culverts including fixing with cement mortar 1:2 as per Drawing and Technical Specifications., 600 mm  internal dia.</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Mechanical  Means ., Road way Excavation in  all types of soil as per Drawing and technical specifications  including  removal of stumps and other deleterious matter, all lifts and lead as per Drawing and instruction of the Engineer.</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="B169" t="str">
+            <v>Providing and laying of Plain/Reinforced Cement Concrete in Foundation complete as per Drawing and Technical Specifications, PCC Grade M 15</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="B171" t="str">
+            <v>Providing and laying of Plain/Reinforced Cement Concrete in Foundation complete as per Drawing and Technical Specifications, PCC Grade M 20</v>
+          </cell>
+        </row>
+        <row r="278">
+          <cell r="B278" t="str">
+            <v>Providing and laying Brick Masonry Work in Cement mortar  in Foundation / structure complete excluding Pointing and Plastering, as per Drawing and Technical Specifications., Cement sand mortar (1:6)</v>
+          </cell>
+        </row>
+        <row r="301">
+          <cell r="B301" t="str">
+            <v>Random Rubble Masonry, Providing and laying of Stone Masonry Work in Cement Mortar 1:6 in Foundation complete as per Drawing and Technical Specifications.</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1158,9 +1199,9 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
-        <row r="33">
-          <cell r="B33" t="str">
-            <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Manual Means ., Roadway Excavation in all types of soil as per drawing and technical specification, including removal of stumps and other deleterious matter, with all lifts and lead as per Drawing and instruction of the Engineer.</v>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>Dismantling of existing structures like culverts, bridges, retaining walls and other structure comprising of masonry, cement concrete, wood work, steel work, including scaffolding wherever necessary, sorting the dismantled Material, disposal of unserviceable Material and stacking the serviceable Material with all lifts and lead of 1000 meters, Dismantling Brick / Tile work, In cement mortar</v>
           </cell>
         </row>
       </sheetData>
@@ -1189,6 +1230,65 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Datasheet"/>
+      <sheetName val="Abstract"/>
+      <sheetName val="Quantity_Sheet"/>
+      <sheetName val="District_Rate"/>
+      <sheetName val="Equipment_Rate"/>
+      <sheetName val="Summary_of_Rates"/>
+      <sheetName val="rate (roadway)"/>
+      <sheetName val="manhole"/>
+      <sheetName val="bistar"/>
+      <sheetName val="Rate_Analysis"/>
+      <sheetName val="DWC pipe Rate-analysis"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Loading_Unloading"/>
+      <sheetName val="Collection"/>
+      <sheetName val="Transportation"/>
+      <sheetName val="References"/>
+      <sheetName val="BOQ"/>
+      <sheetName val="PPMO_BOQ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1">
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Manual Means ., Roadway Excavation in all types of soil as per drawing and technical specification, including removal of stumps and other deleterious matter, with all lifts and lead as per Drawing and instruction of the Engineer.</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1247,149 +1347,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="re-estimate"/>
-      <sheetName val="grill item changed"/>
-      <sheetName val="callapsible gate added"/>
-      <sheetName val="WCR"/>
-      <sheetName val="V"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Project:- राष्ट्रिय मा. बि. वाल निर्माण</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Location:- Shankharapur Municipality 9</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="B106" t="str">
-            <v>VAT calculation</v>
-          </cell>
-          <cell r="J106">
-            <v>6803.3352934950008</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="13">
-          <cell r="G13">
-            <v>2.1729629996843562</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Datasheet"/>
-      <sheetName val="Abstract"/>
-      <sheetName val="Quantity_Sheet"/>
-      <sheetName val="District_Rate"/>
-      <sheetName val="Equipment_Rate"/>
-      <sheetName val="Summary_of_Rates"/>
-      <sheetName val="rate (roadway)"/>
-      <sheetName val="manhole"/>
-      <sheetName val="bistar"/>
-      <sheetName val="Rate_Analysis"/>
-      <sheetName val="DWC pipe Rate-analysis"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Sheet4"/>
-      <sheetName val="Loading_Unloading"/>
-      <sheetName val="Collection"/>
-      <sheetName val="Transportation"/>
-      <sheetName val="References"/>
-      <sheetName val="BOQ"/>
-      <sheetName val="PPMO_BOQ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>Clearing and Grubbing Road Land ., Clearing and grubbing road land including uprooting rank vegetation, grass, bushes, shrubs, saplings and trees girth up to 300 mm, removal of stumps of trees cut earlier and disposal of unserviceable materials and stacking of serviceable Material to be used or auctioned, up to a lead of 30 meters including removal and disposal of top organic soil not exceeding 150 mm in thickness., By Mechanical Means, In area of light jungle (less than 15 number per 100 sqm )</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>Providing and Laying Reinforced cement concrete NP3 Flush jointed pipe for culverts including fixing with cement mortar 1:2 as per Drawing and Technical Specifications., 450 mm  internal dia.</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>Providing and Laying Reinforced cement concrete NP3 Flush jointed pipe for culverts including fixing with cement mortar 1:2 as per Drawing and Technical Specifications., 600 mm  internal dia.</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34" t="str">
-            <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Mechanical  Means ., Road way Excavation in  all types of soil as per Drawing and technical specifications  including  removal of stumps and other deleterious matter, all lifts and lead as per Drawing and instruction of the Engineer.</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="B169" t="str">
-            <v>Providing and laying of Plain/Reinforced Cement Concrete in Foundation complete as per Drawing and Technical Specifications, PCC Grade M 15</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="B171" t="str">
-            <v>Providing and laying of Plain/Reinforced Cement Concrete in Foundation complete as per Drawing and Technical Specifications, PCC Grade M 20</v>
-          </cell>
-        </row>
-        <row r="278">
-          <cell r="B278" t="str">
-            <v>Providing and laying Brick Masonry Work in Cement mortar  in Foundation / structure complete excluding Pointing and Plastering, as per Drawing and Technical Specifications., Cement sand mortar (1:6)</v>
-          </cell>
-        </row>
-        <row r="301">
-          <cell r="B301" t="str">
-            <v>Random Rubble Masonry, Providing and laying of Stone Masonry Work in Cement Mortar 1:6 in Foundation complete as per Drawing and Technical Specifications.</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1453,7 +1411,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1485,6 +1443,65 @@
         <row r="61">
           <cell r="B61" t="str">
             <v>Providing and laying  granular sub-base   on prepared surface, mixing  at OMC, and compacting  to achieve the desired density, complete as per Drawing and Technical Specifications., By Mechanical means</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Datasheet"/>
+      <sheetName val="Abstract"/>
+      <sheetName val="Quantity_Sheet"/>
+      <sheetName val="District_Rate"/>
+      <sheetName val="Equipment_Rate"/>
+      <sheetName val="Summary_of_Rates"/>
+      <sheetName val="rate (roadway)"/>
+      <sheetName val="manhole"/>
+      <sheetName val="bistar"/>
+      <sheetName val="Rate_Analysis"/>
+      <sheetName val="DWC pipe Rate-analysis"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Loading_Unloading"/>
+      <sheetName val="Collection"/>
+      <sheetName val="Transportation"/>
+      <sheetName val="References"/>
+      <sheetName val="BOQ"/>
+      <sheetName val="PPMO_BOQ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="299">
+          <cell r="B299" t="str">
+            <v>Random Rubble Masonry, Providing and laying of Stone Masonry Work in Cement Mortar 1:4 in Foundation complete as per Drawing and Technical Specifications.</v>
           </cell>
         </row>
       </sheetData>
@@ -1781,135 +1798,135 @@
       <selection activeCell="A46" sqref="A46:XFD59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="69" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="61" t="s">
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1944,7 +1961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1969,7 +1986,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="38"/>
       <c r="B10" s="39" t="s">
         <v>46</v>
@@ -1998,7 +2015,7 @@
       <c r="K10" s="11"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A11" s="38"/>
       <c r="B11" s="39" t="s">
         <v>47</v>
@@ -2027,7 +2044,7 @@
       <c r="K11" s="11"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="38"/>
       <c r="B12" s="39"/>
       <c r="C12" s="40">
@@ -2055,7 +2072,7 @@
       <c r="K12" s="11"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A13" s="38"/>
       <c r="B13" s="39" t="s">
         <v>51</v>
@@ -2085,7 +2102,7 @@
       <c r="K13" s="11"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
       <c r="B14" s="39" t="s">
         <v>48</v>
@@ -2114,7 +2131,7 @@
       <c r="K14" s="11"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
       <c r="B15" s="39" t="s">
         <v>50</v>
@@ -2143,7 +2160,7 @@
       <c r="K15" s="11"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38"/>
       <c r="B16" s="39"/>
       <c r="C16" s="40">
@@ -2170,7 +2187,7 @@
       <c r="K16" s="11"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
       <c r="B17" s="39"/>
       <c r="C17" s="40">
@@ -2197,7 +2214,7 @@
       <c r="K17" s="11"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="39"/>
       <c r="C18" s="40">
@@ -2224,7 +2241,7 @@
       <c r="K18" s="11"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A19" s="38"/>
       <c r="B19" s="39" t="s">
         <v>38</v>
@@ -2253,7 +2270,7 @@
       <c r="K19" s="11"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
       <c r="B20" s="39"/>
       <c r="C20" s="40">
@@ -2280,7 +2297,7 @@
       <c r="K20" s="11"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="39"/>
       <c r="C21" s="40">
@@ -2307,7 +2324,7 @@
       <c r="K21" s="11"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="38"/>
       <c r="B22" s="39"/>
       <c r="C22" s="40">
@@ -2334,7 +2351,7 @@
       <c r="K22" s="11"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A23" s="38"/>
       <c r="B23" s="39" t="s">
         <v>52</v>
@@ -2364,7 +2381,7 @@
       <c r="K23" s="11"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="39" t="s">
         <v>26</v>
@@ -2389,7 +2406,7 @@
       </c>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="39" t="s">
         <v>39</v>
@@ -2407,7 +2424,7 @@
       </c>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="21"/>
       <c r="B26" s="37"/>
       <c r="C26" s="22"/>
@@ -2420,7 +2437,7 @@
       <c r="J26" s="27"/>
       <c r="K26" s="24"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A27" s="38">
         <v>2</v>
       </c>
@@ -2438,7 +2455,7 @@
       <c r="K27" s="11"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38"/>
       <c r="B28" s="39"/>
       <c r="C28" s="40">
@@ -2463,7 +2480,7 @@
       <c r="K28" s="11"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
       <c r="B29" s="39" t="s">
         <v>26</v>
@@ -2488,7 +2505,7 @@
       </c>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21"/>
       <c r="B30" s="39" t="s">
         <v>39</v>
@@ -2506,7 +2523,7 @@
       </c>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
       <c r="B31" s="39"/>
       <c r="C31" s="22"/>
@@ -2519,7 +2536,7 @@
       <c r="J31" s="27"/>
       <c r="K31" s="24"/>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
         <v>3</v>
       </c>
@@ -2536,7 +2553,7 @@
       <c r="J32" s="27"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
       <c r="B33" s="39" t="s">
         <v>41</v>
@@ -2564,7 +2581,7 @@
       <c r="J33" s="27"/>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21"/>
       <c r="B34" s="39" t="s">
         <v>26</v>
@@ -2589,7 +2606,7 @@
       </c>
       <c r="K34" s="24"/>
     </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
       <c r="B35" s="39"/>
       <c r="C35" s="22"/>
@@ -2602,7 +2619,7 @@
       <c r="J35" s="27"/>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A36" s="21">
         <v>3</v>
       </c>
@@ -2619,7 +2636,7 @@
       <c r="J36" s="27"/>
       <c r="K36" s="24"/>
     </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21"/>
       <c r="B37" s="39" t="s">
         <v>41</v>
@@ -2646,7 +2663,7 @@
       <c r="J37" s="27"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21"/>
       <c r="B38" s="39" t="s">
         <v>26</v>
@@ -2671,7 +2688,7 @@
       </c>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21"/>
       <c r="B39" s="39" t="s">
         <v>39</v>
@@ -2689,7 +2706,7 @@
       </c>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
       <c r="B40" s="39"/>
       <c r="C40" s="22"/>
@@ -2702,7 +2719,7 @@
       <c r="J40" s="27"/>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" s="21">
         <v>3</v>
       </c>
@@ -2719,7 +2736,7 @@
       <c r="J41" s="27"/>
       <c r="K41" s="24"/>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21"/>
       <c r="B42" s="39" t="s">
         <v>41</v>
@@ -2746,7 +2763,7 @@
       <c r="J42" s="27"/>
       <c r="K42" s="24"/>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21"/>
       <c r="B43" s="39" t="s">
         <v>26</v>
@@ -2771,7 +2788,7 @@
       </c>
       <c r="K43" s="24"/>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="21"/>
       <c r="B44" s="39" t="s">
         <v>39</v>
@@ -2789,7 +2806,7 @@
       </c>
       <c r="K44" s="24"/>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
       <c r="B45" s="39"/>
       <c r="C45" s="22"/>
@@ -2802,7 +2819,7 @@
       <c r="J45" s="27"/>
       <c r="K45" s="24"/>
     </row>
-    <row r="60" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A60" s="21">
         <v>3</v>
       </c>
@@ -2819,7 +2836,7 @@
       <c r="J60" s="27"/>
       <c r="K60" s="24"/>
     </row>
-    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="21"/>
       <c r="B61" s="39" t="s">
         <v>41</v>
@@ -2846,7 +2863,7 @@
       <c r="J61" s="27"/>
       <c r="K61" s="24"/>
     </row>
-    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="21"/>
       <c r="B62" s="39" t="s">
         <v>26</v>
@@ -2871,7 +2888,7 @@
       </c>
       <c r="K62" s="24"/>
     </row>
-    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="21"/>
       <c r="B63" s="39" t="s">
         <v>39</v>
@@ -2889,7 +2906,7 @@
       </c>
       <c r="K63" s="24"/>
     </row>
-    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="21"/>
       <c r="B64" s="39"/>
       <c r="C64" s="22"/>
@@ -2902,7 +2919,7 @@
       <c r="J64" s="27"/>
       <c r="K64" s="24"/>
     </row>
-    <row r="65" spans="1:31" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A65" s="21">
         <v>3</v>
       </c>
@@ -2931,7 +2948,7 @@
       </c>
       <c r="K65" s="24"/>
     </row>
-    <row r="66" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="21"/>
       <c r="B66" s="39"/>
       <c r="C66" s="22"/>
@@ -2944,7 +2961,7 @@
       <c r="J66" s="27"/>
       <c r="K66" s="24"/>
     </row>
-    <row r="67" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="21">
         <v>4</v>
       </c>
@@ -2973,7 +2990,7 @@
       </c>
       <c r="K67" s="24"/>
     </row>
-    <row r="68" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="21"/>
       <c r="B68" s="39"/>
       <c r="C68" s="22"/>
@@ -2986,7 +3003,7 @@
       <c r="J68" s="27"/>
       <c r="K68" s="24"/>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
       <c r="B69" s="20" t="s">
         <v>16</v>
@@ -3007,7 +3024,7 @@
       <c r="P69" s="32"/>
       <c r="Q69" s="32"/>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
       <c r="M70" s="29"/>
       <c r="N70" s="30"/>
       <c r="O70" s="30"/>
@@ -3027,15 +3044,15 @@
       <c r="AD70" s="29"/>
       <c r="AE70" s="29"/>
     </row>
-    <row r="71" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="58">
+      <c r="C71" s="64">
         <f>J69</f>
         <v>324179.69887430896</v>
       </c>
-      <c r="D71" s="59"/>
+      <c r="D71" s="65"/>
       <c r="E71" s="10">
         <v>100</v>
       </c>
@@ -3065,14 +3082,14 @@
       <c r="AD71" s="12"/>
       <c r="AE71" s="12"/>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B72" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="62">
+      <c r="C72" s="67">
         <v>400000</v>
       </c>
-      <c r="D72" s="63"/>
+      <c r="D72" s="68"/>
       <c r="E72" s="10"/>
       <c r="M72" s="29"/>
       <c r="N72" s="30"/>
@@ -3094,15 +3111,15 @@
       <c r="AD72" s="29"/>
       <c r="AE72" s="29"/>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B73" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C73" s="62">
+      <c r="C73" s="67">
         <f>C72-C75-C76</f>
         <v>380000</v>
       </c>
-      <c r="D73" s="63"/>
+      <c r="D73" s="68"/>
       <c r="E73" s="10">
         <f>C73/C71*100</f>
         <v>117.21893792841533</v>
@@ -3127,15 +3144,15 @@
       <c r="AD73" s="29"/>
       <c r="AE73" s="29"/>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B74" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C74" s="64">
+      <c r="C74" s="69">
         <f>C71-C73</f>
         <v>-55820.301125691039</v>
       </c>
-      <c r="D74" s="64"/>
+      <c r="D74" s="69"/>
       <c r="E74" s="10">
         <f>100-E73</f>
         <v>-17.218937928415329</v>
@@ -3160,15 +3177,15 @@
       <c r="AD74" s="29"/>
       <c r="AE74" s="29"/>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B75" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C75" s="58">
+      <c r="C75" s="64">
         <f>C72*0.03</f>
         <v>12000</v>
       </c>
-      <c r="D75" s="59"/>
+      <c r="D75" s="65"/>
       <c r="E75" s="10">
         <v>3</v>
       </c>
@@ -3192,15 +3209,15 @@
       <c r="AD75" s="29"/>
       <c r="AE75" s="29"/>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B76" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C76" s="58">
+      <c r="C76" s="64">
         <f>C72*0.02</f>
         <v>8000</v>
       </c>
-      <c r="D76" s="59"/>
+      <c r="D76" s="65"/>
       <c r="E76" s="10">
         <v>2</v>
       </c>
@@ -3226,13 +3243,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C75:D75"/>
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="A7:F7"/>
@@ -3241,6 +3251,13 @@
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="C74:D74"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3262,135 +3279,135 @@
       <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="69" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="61" t="s">
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -3425,7 +3442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -3450,7 +3467,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="38"/>
       <c r="B10" s="39" t="s">
         <v>46</v>
@@ -3480,7 +3497,7 @@
       <c r="K10" s="11"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A11" s="38"/>
       <c r="B11" s="39" t="s">
         <v>47</v>
@@ -3509,7 +3526,7 @@
       <c r="K11" s="11"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A12" s="38"/>
       <c r="B12" s="39" t="s">
         <v>51</v>
@@ -3539,7 +3556,7 @@
       <c r="K12" s="11"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A13" s="38"/>
       <c r="B13" s="39" t="s">
         <v>48</v>
@@ -3569,7 +3586,7 @@
       <c r="K13" s="11"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
       <c r="B14" s="39" t="s">
         <v>50</v>
@@ -3599,7 +3616,7 @@
       <c r="K14" s="11"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
       <c r="B15" s="39"/>
       <c r="C15" s="40">
@@ -3627,7 +3644,7 @@
       <c r="K15" s="11"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38"/>
       <c r="B16" s="39"/>
       <c r="C16" s="40">
@@ -3655,7 +3672,7 @@
       <c r="K16" s="11"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
       <c r="B17" s="39"/>
       <c r="C17" s="40">
@@ -3683,7 +3700,7 @@
       <c r="K17" s="11"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="39" t="s">
         <v>49</v>
@@ -3713,7 +3730,7 @@
       <c r="K18" s="11"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="38"/>
       <c r="B19" s="39"/>
       <c r="C19" s="40">
@@ -3741,7 +3758,7 @@
       <c r="K19" s="11"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
       <c r="B20" s="39"/>
       <c r="C20" s="40">
@@ -3769,7 +3786,7 @@
       <c r="K20" s="11"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="39"/>
       <c r="C21" s="40">
@@ -3797,7 +3814,7 @@
       <c r="K21" s="11"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A22" s="38"/>
       <c r="B22" s="39" t="s">
         <v>52</v>
@@ -3827,7 +3844,7 @@
       <c r="K22" s="11"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21"/>
       <c r="B23" s="39" t="s">
         <v>26</v>
@@ -3852,7 +3869,7 @@
       </c>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="39" t="s">
         <v>39</v>
@@ -3870,7 +3887,7 @@
       </c>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="37"/>
       <c r="C25" s="22"/>
@@ -3883,7 +3900,7 @@
       <c r="J25" s="27"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A26" s="38">
         <v>2</v>
       </c>
@@ -3901,7 +3918,7 @@
       <c r="K26" s="11"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="38"/>
       <c r="B27" s="39"/>
       <c r="C27" s="40">
@@ -3926,7 +3943,7 @@
       <c r="K27" s="11"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
       <c r="B28" s="39" t="s">
         <v>26</v>
@@ -3951,7 +3968,7 @@
       </c>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
       <c r="B29" s="39" t="s">
         <v>39</v>
@@ -3969,7 +3986,7 @@
       </c>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21"/>
       <c r="B30" s="39"/>
       <c r="C30" s="22"/>
@@ -3982,7 +3999,7 @@
       <c r="J30" s="27"/>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
         <v>3</v>
       </c>
@@ -3999,7 +4016,7 @@
       <c r="J31" s="27"/>
       <c r="K31" s="24"/>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21"/>
       <c r="B32" s="39" t="s">
         <v>41</v>
@@ -4027,7 +4044,7 @@
       <c r="J32" s="27"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
       <c r="B33" s="39" t="s">
         <v>26</v>
@@ -4052,7 +4069,7 @@
       </c>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21"/>
       <c r="B34" s="39"/>
       <c r="C34" s="22"/>
@@ -4065,7 +4082,7 @@
       <c r="J34" s="27"/>
       <c r="K34" s="24"/>
     </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="21">
         <v>4</v>
       </c>
@@ -4082,7 +4099,7 @@
       <c r="J35" s="27"/>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21"/>
       <c r="B36" s="39" t="s">
         <v>41</v>
@@ -4109,7 +4126,7 @@
       <c r="J36" s="27"/>
       <c r="K36" s="24"/>
     </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21"/>
       <c r="B37" s="39" t="s">
         <v>56</v>
@@ -4135,7 +4152,7 @@
       <c r="J37" s="27"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21"/>
       <c r="B38" s="39" t="s">
         <v>26</v>
@@ -4160,7 +4177,7 @@
       </c>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21"/>
       <c r="B39" s="39" t="s">
         <v>39</v>
@@ -4178,7 +4195,7 @@
       </c>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
       <c r="B40" s="39"/>
       <c r="C40" s="22"/>
@@ -4191,7 +4208,7 @@
       <c r="J40" s="27"/>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" s="21">
         <v>5</v>
       </c>
@@ -4208,7 +4225,7 @@
       <c r="J41" s="27"/>
       <c r="K41" s="24"/>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21"/>
       <c r="B42" s="39" t="s">
         <v>41</v>
@@ -4237,7 +4254,7 @@
       <c r="J42" s="27"/>
       <c r="K42" s="24"/>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21"/>
       <c r="B43" s="39" t="s">
         <v>26</v>
@@ -4262,7 +4279,7 @@
       </c>
       <c r="K43" s="24"/>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="21"/>
       <c r="B44" s="39" t="s">
         <v>39</v>
@@ -4280,7 +4297,7 @@
       </c>
       <c r="K44" s="24"/>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
       <c r="B45" s="39"/>
       <c r="C45" s="22"/>
@@ -4293,7 +4310,7 @@
       <c r="J45" s="27"/>
       <c r="K45" s="24"/>
     </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A46" s="21">
         <v>6</v>
       </c>
@@ -4310,7 +4327,7 @@
       <c r="J46" s="27"/>
       <c r="K46" s="24"/>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="21"/>
       <c r="B47" s="39" t="s">
         <v>57</v>
@@ -4339,7 +4356,7 @@
       <c r="J47" s="27"/>
       <c r="K47" s="24"/>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="21"/>
       <c r="B48" s="39"/>
       <c r="C48" s="22">
@@ -4364,7 +4381,7 @@
       <c r="J48" s="27"/>
       <c r="K48" s="24"/>
     </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="21"/>
       <c r="B49" s="39" t="s">
         <v>56</v>
@@ -4392,7 +4409,7 @@
       <c r="J49" s="27"/>
       <c r="K49" s="24"/>
     </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="21"/>
       <c r="B50" s="39" t="s">
         <v>26</v>
@@ -4417,7 +4434,7 @@
       </c>
       <c r="K50" s="24"/>
     </row>
-    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="21"/>
       <c r="B51" s="39" t="s">
         <v>39</v>
@@ -4435,7 +4452,7 @@
       </c>
       <c r="K51" s="24"/>
     </row>
-    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21"/>
       <c r="B52" s="39"/>
       <c r="C52" s="22"/>
@@ -4448,7 +4465,7 @@
       <c r="J52" s="27"/>
       <c r="K52" s="24"/>
     </row>
-    <row r="53" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A53" s="21">
         <v>7</v>
       </c>
@@ -4465,7 +4482,7 @@
       <c r="J53" s="27"/>
       <c r="K53" s="24"/>
     </row>
-    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="21"/>
       <c r="B54" s="39" t="s">
         <v>57</v>
@@ -4493,7 +4510,7 @@
       <c r="J54" s="27"/>
       <c r="K54" s="24"/>
     </row>
-    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="21"/>
       <c r="B55" s="39"/>
       <c r="C55" s="22">
@@ -4519,7 +4536,7 @@
       <c r="J55" s="27"/>
       <c r="K55" s="24"/>
     </row>
-    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="21"/>
       <c r="B56" s="39" t="s">
         <v>58</v>
@@ -4546,7 +4563,7 @@
       <c r="J56" s="27"/>
       <c r="K56" s="24"/>
     </row>
-    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="21"/>
       <c r="B57" s="39"/>
       <c r="C57" s="22">
@@ -4571,7 +4588,7 @@
       <c r="J57" s="27"/>
       <c r="K57" s="24"/>
     </row>
-    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="21"/>
       <c r="B58" s="39" t="s">
         <v>26</v>
@@ -4596,7 +4613,7 @@
       </c>
       <c r="K58" s="24"/>
     </row>
-    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="21"/>
       <c r="B59" s="39" t="s">
         <v>39</v>
@@ -4614,7 +4631,7 @@
       </c>
       <c r="K59" s="24"/>
     </row>
-    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="21"/>
       <c r="B60" s="39"/>
       <c r="C60" s="22"/>
@@ -4627,7 +4644,7 @@
       <c r="J60" s="27"/>
       <c r="K60" s="24"/>
     </row>
-    <row r="61" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A61" s="21">
         <v>8</v>
       </c>
@@ -4644,7 +4661,7 @@
       <c r="J61" s="27"/>
       <c r="K61" s="24"/>
     </row>
-    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="21"/>
       <c r="B62" s="39" t="s">
         <v>58</v>
@@ -4670,7 +4687,7 @@
       <c r="J62" s="27"/>
       <c r="K62" s="24"/>
     </row>
-    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="21"/>
       <c r="B63" s="39"/>
       <c r="C63" s="22">
@@ -4694,7 +4711,7 @@
       <c r="J63" s="27"/>
       <c r="K63" s="24"/>
     </row>
-    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="21"/>
       <c r="B64" s="39" t="s">
         <v>26</v>
@@ -4719,7 +4736,7 @@
       </c>
       <c r="K64" s="24"/>
     </row>
-    <row r="65" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="21"/>
       <c r="B65" s="39" t="s">
         <v>39</v>
@@ -4737,7 +4754,7 @@
       </c>
       <c r="K65" s="24"/>
     </row>
-    <row r="66" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A66" s="21"/>
       <c r="B66" s="37"/>
       <c r="C66" s="22"/>
@@ -4750,7 +4767,7 @@
       <c r="J66" s="27"/>
       <c r="K66" s="24"/>
     </row>
-    <row r="67" spans="1:31" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A67" s="21">
         <v>9</v>
       </c>
@@ -4779,7 +4796,7 @@
       </c>
       <c r="K67" s="24"/>
     </row>
-    <row r="68" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="21"/>
       <c r="B68" s="39"/>
       <c r="C68" s="22"/>
@@ -4792,7 +4809,7 @@
       <c r="J68" s="27"/>
       <c r="K68" s="24"/>
     </row>
-    <row r="69" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="21">
         <v>10</v>
       </c>
@@ -4821,7 +4838,7 @@
       </c>
       <c r="K69" s="24"/>
     </row>
-    <row r="70" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="21"/>
       <c r="B70" s="39"/>
       <c r="C70" s="22"/>
@@ -4834,7 +4851,7 @@
       <c r="J70" s="27"/>
       <c r="K70" s="24"/>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
       <c r="B71" s="20" t="s">
         <v>16</v>
@@ -4855,7 +4872,7 @@
       <c r="P71" s="32"/>
       <c r="Q71" s="32"/>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
       <c r="M72" s="29"/>
       <c r="N72" s="30"/>
       <c r="O72" s="30"/>
@@ -4875,15 +4892,15 @@
       <c r="AD72" s="29"/>
       <c r="AE72" s="29"/>
     </row>
-    <row r="73" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B73" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="58">
+      <c r="C73" s="64">
         <f>J71</f>
         <v>902209.24857039668</v>
       </c>
-      <c r="D73" s="59"/>
+      <c r="D73" s="65"/>
       <c r="E73" s="10">
         <v>100</v>
       </c>
@@ -4913,14 +4930,14 @@
       <c r="AD73" s="12"/>
       <c r="AE73" s="12"/>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B74" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C74" s="62">
+      <c r="C74" s="67">
         <v>400000</v>
       </c>
-      <c r="D74" s="63"/>
+      <c r="D74" s="68"/>
       <c r="E74" s="10"/>
       <c r="M74" s="29"/>
       <c r="N74" s="30"/>
@@ -4942,15 +4959,15 @@
       <c r="AD74" s="29"/>
       <c r="AE74" s="29"/>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="62">
+      <c r="C75" s="67">
         <f>C74-C77-C78</f>
         <v>380000</v>
       </c>
-      <c r="D75" s="63"/>
+      <c r="D75" s="68"/>
       <c r="E75" s="10">
         <f>C75/C73*100</f>
         <v>42.118832255613896</v>
@@ -4975,15 +4992,15 @@
       <c r="AD75" s="29"/>
       <c r="AE75" s="29"/>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B76" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="64">
+      <c r="C76" s="69">
         <f>C73-C75</f>
         <v>522209.24857039668</v>
       </c>
-      <c r="D76" s="64"/>
+      <c r="D76" s="69"/>
       <c r="E76" s="10">
         <f>100-E75</f>
         <v>57.881167744386104</v>
@@ -5008,15 +5025,15 @@
       <c r="AD76" s="29"/>
       <c r="AE76" s="29"/>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B77" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="58">
+      <c r="C77" s="64">
         <f>C74*0.03</f>
         <v>12000</v>
       </c>
-      <c r="D77" s="59"/>
+      <c r="D77" s="65"/>
       <c r="E77" s="10">
         <v>3</v>
       </c>
@@ -5040,15 +5057,15 @@
       <c r="AD77" s="29"/>
       <c r="AE77" s="29"/>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B78" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C78" s="58">
+      <c r="C78" s="64">
         <f>C74*0.02</f>
         <v>8000</v>
       </c>
-      <c r="D78" s="59"/>
+      <c r="D78" s="65"/>
       <c r="E78" s="10">
         <v>2</v>
       </c>
@@ -5074,13 +5091,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="A7:F7"/>
@@ -5089,6 +5099,13 @@
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="C75:D75"/>
     <mergeCell ref="C76:D76"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B61" r:id="rId1"/>
@@ -5116,135 +5133,135 @@
       <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="69" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="61" t="s">
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -5279,7 +5296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -5304,7 +5321,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="38"/>
       <c r="B10" s="39" t="s">
         <v>46</v>
@@ -5334,7 +5351,7 @@
       <c r="K10" s="11"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A11" s="38"/>
       <c r="B11" s="39" t="s">
         <v>47</v>
@@ -5363,7 +5380,7 @@
       <c r="K11" s="11"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A12" s="38"/>
       <c r="B12" s="39" t="s">
         <v>51</v>
@@ -5393,7 +5410,7 @@
       <c r="K12" s="11"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A13" s="38"/>
       <c r="B13" s="39" t="s">
         <v>48</v>
@@ -5423,7 +5440,7 @@
       <c r="K13" s="11"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
       <c r="B14" s="39" t="s">
         <v>50</v>
@@ -5453,7 +5470,7 @@
       <c r="K14" s="11"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
       <c r="B15" s="39"/>
       <c r="C15" s="40">
@@ -5481,7 +5498,7 @@
       <c r="K15" s="11"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38"/>
       <c r="B16" s="39"/>
       <c r="C16" s="40">
@@ -5509,7 +5526,7 @@
       <c r="K16" s="11"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
       <c r="B17" s="39"/>
       <c r="C17" s="40">
@@ -5537,7 +5554,7 @@
       <c r="K17" s="11"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="39" t="s">
         <v>49</v>
@@ -5567,7 +5584,7 @@
       <c r="K18" s="11"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="38"/>
       <c r="B19" s="39"/>
       <c r="C19" s="40">
@@ -5595,7 +5612,7 @@
       <c r="K19" s="11"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
       <c r="B20" s="39"/>
       <c r="C20" s="40">
@@ -5623,7 +5640,7 @@
       <c r="K20" s="11"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="39"/>
       <c r="C21" s="40">
@@ -5651,7 +5668,7 @@
       <c r="K21" s="11"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A22" s="38"/>
       <c r="B22" s="39" t="s">
         <v>60</v>
@@ -5681,7 +5698,7 @@
       <c r="K22" s="11"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21"/>
       <c r="B23" s="39" t="s">
         <v>26</v>
@@ -5706,7 +5723,7 @@
       </c>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="39" t="s">
         <v>39</v>
@@ -5724,7 +5741,7 @@
       </c>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="37"/>
       <c r="C25" s="22"/>
@@ -5737,7 +5754,7 @@
       <c r="J25" s="27"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A26" s="38">
         <v>2</v>
       </c>
@@ -5755,7 +5772,7 @@
       <c r="K26" s="11"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="38"/>
       <c r="B27" s="39"/>
       <c r="C27" s="40">
@@ -5780,7 +5797,7 @@
       <c r="K27" s="11"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
       <c r="B28" s="39" t="s">
         <v>26</v>
@@ -5805,7 +5822,7 @@
       </c>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
       <c r="B29" s="39" t="s">
         <v>39</v>
@@ -5823,7 +5840,7 @@
       </c>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21"/>
       <c r="B30" s="39"/>
       <c r="C30" s="22"/>
@@ -5836,7 +5853,7 @@
       <c r="J30" s="27"/>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
         <v>3</v>
       </c>
@@ -5853,7 +5870,7 @@
       <c r="J31" s="27"/>
       <c r="K31" s="24"/>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21"/>
       <c r="B32" s="39" t="s">
         <v>57</v>
@@ -5881,7 +5898,7 @@
       <c r="J32" s="27"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
       <c r="B33" s="39" t="s">
         <v>26</v>
@@ -5906,7 +5923,7 @@
       </c>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21"/>
       <c r="B34" s="39"/>
       <c r="C34" s="22"/>
@@ -5919,7 +5936,7 @@
       <c r="J34" s="27"/>
       <c r="K34" s="24"/>
     </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="21">
         <v>4</v>
       </c>
@@ -5936,7 +5953,7 @@
       <c r="J35" s="27"/>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21"/>
       <c r="B36" s="39" t="str">
         <f>B32</f>
@@ -5964,7 +5981,7 @@
       <c r="J36" s="27"/>
       <c r="K36" s="24"/>
     </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21"/>
       <c r="B37" s="39" t="s">
         <v>63</v>
@@ -5990,7 +6007,7 @@
       <c r="J37" s="27"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21"/>
       <c r="B38" s="39"/>
       <c r="C38" s="22">
@@ -6014,7 +6031,7 @@
       <c r="J38" s="27"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21"/>
       <c r="B39" s="39" t="s">
         <v>26</v>
@@ -6039,7 +6056,7 @@
       </c>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
       <c r="B40" s="39" t="s">
         <v>39</v>
@@ -6057,7 +6074,7 @@
       </c>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="21"/>
       <c r="B41" s="39"/>
       <c r="C41" s="22"/>
@@ -6070,7 +6087,7 @@
       <c r="J41" s="27"/>
       <c r="K41" s="24"/>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A42" s="21">
         <v>5</v>
       </c>
@@ -6087,7 +6104,7 @@
       <c r="J42" s="27"/>
       <c r="K42" s="24"/>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21"/>
       <c r="B43" s="39" t="str">
         <f>B32</f>
@@ -6117,7 +6134,7 @@
       <c r="J43" s="27"/>
       <c r="K43" s="24"/>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="21"/>
       <c r="B44" s="39" t="s">
         <v>63</v>
@@ -6145,7 +6162,7 @@
       <c r="J44" s="27"/>
       <c r="K44" s="24"/>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
       <c r="B45" s="39"/>
       <c r="C45" s="22">
@@ -6171,7 +6188,7 @@
       <c r="J45" s="27"/>
       <c r="K45" s="24"/>
     </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21"/>
       <c r="B46" s="39" t="s">
         <v>26</v>
@@ -6196,7 +6213,7 @@
       </c>
       <c r="K46" s="24"/>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="21"/>
       <c r="B47" s="39" t="s">
         <v>39</v>
@@ -6214,7 +6231,7 @@
       </c>
       <c r="K47" s="24"/>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="21"/>
       <c r="B48" s="39"/>
       <c r="C48" s="22"/>
@@ -6227,7 +6244,7 @@
       <c r="J48" s="27"/>
       <c r="K48" s="24"/>
     </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="21">
         <v>6</v>
       </c>
@@ -6254,7 +6271,7 @@
       <c r="J49" s="27"/>
       <c r="K49" s="24"/>
     </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="21"/>
       <c r="B50" s="39" t="str">
         <f>B44</f>
@@ -6284,7 +6301,7 @@
       <c r="J50" s="27"/>
       <c r="K50" s="24"/>
     </row>
-    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="21"/>
       <c r="B51" s="39" t="s">
         <v>69</v>
@@ -6314,7 +6331,7 @@
       <c r="J51" s="27"/>
       <c r="K51" s="24"/>
     </row>
-    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21"/>
       <c r="B52" s="39" t="s">
         <v>63</v>
@@ -6343,7 +6360,7 @@
       <c r="J52" s="27"/>
       <c r="K52" s="24"/>
     </row>
-    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="21"/>
       <c r="B53" s="39" t="s">
         <v>69</v>
@@ -6373,7 +6390,7 @@
       <c r="J53" s="27"/>
       <c r="K53" s="24"/>
     </row>
-    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="21"/>
       <c r="B54" s="39" t="s">
         <v>26</v>
@@ -6398,7 +6415,7 @@
       </c>
       <c r="K54" s="24"/>
     </row>
-    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="21"/>
       <c r="B55" s="39" t="s">
         <v>39</v>
@@ -6416,7 +6433,7 @@
       </c>
       <c r="K55" s="24"/>
     </row>
-    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="21"/>
       <c r="B56" s="39"/>
       <c r="C56" s="22"/>
@@ -6429,7 +6446,7 @@
       <c r="J56" s="27"/>
       <c r="K56" s="24"/>
     </row>
-    <row r="57" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A57" s="21">
         <v>7</v>
       </c>
@@ -6446,7 +6463,7 @@
       <c r="J57" s="27"/>
       <c r="K57" s="24"/>
     </row>
-    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="21"/>
       <c r="B58" s="39" t="str">
         <f>B32</f>
@@ -6472,7 +6489,7 @@
       <c r="J58" s="27"/>
       <c r="K58" s="24"/>
     </row>
-    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="21"/>
       <c r="B59" s="39" t="s">
         <v>68</v>
@@ -6497,7 +6514,7 @@
       <c r="J59" s="27"/>
       <c r="K59" s="24"/>
     </row>
-    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="21"/>
       <c r="B60" s="39" t="s">
         <v>63</v>
@@ -6524,7 +6541,7 @@
       <c r="J60" s="27"/>
       <c r="K60" s="24"/>
     </row>
-    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="21"/>
       <c r="B61" s="39"/>
       <c r="C61" s="22">
@@ -6549,7 +6566,7 @@
       <c r="J61" s="27"/>
       <c r="K61" s="24"/>
     </row>
-    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="21"/>
       <c r="B62" s="39"/>
       <c r="C62" s="22">
@@ -6574,7 +6591,7 @@
       <c r="J62" s="27"/>
       <c r="K62" s="24"/>
     </row>
-    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="21"/>
       <c r="B63" s="39" t="s">
         <v>26</v>
@@ -6599,7 +6616,7 @@
       </c>
       <c r="K63" s="24"/>
     </row>
-    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="21"/>
       <c r="B64" s="39" t="s">
         <v>39</v>
@@ -6617,7 +6634,7 @@
       </c>
       <c r="K64" s="24"/>
     </row>
-    <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="21"/>
       <c r="B65" s="39"/>
       <c r="C65" s="22"/>
@@ -6630,7 +6647,7 @@
       <c r="J65" s="27"/>
       <c r="K65" s="24"/>
     </row>
-    <row r="66" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A66" s="21">
         <v>8</v>
       </c>
@@ -6647,7 +6664,7 @@
       <c r="J66" s="27"/>
       <c r="K66" s="24"/>
     </row>
-    <row r="67" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="21"/>
       <c r="B67" s="39" t="str">
         <f>B32</f>
@@ -6677,7 +6694,7 @@
       <c r="J67" s="27"/>
       <c r="K67" s="24"/>
     </row>
-    <row r="68" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="21"/>
       <c r="B68" s="39" t="str">
         <f>B59</f>
@@ -6706,7 +6723,7 @@
       <c r="J68" s="27"/>
       <c r="K68" s="24"/>
     </row>
-    <row r="69" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="21"/>
       <c r="B69" s="39" t="s">
         <v>61</v>
@@ -6734,7 +6751,7 @@
       <c r="J69" s="27"/>
       <c r="K69" s="24"/>
     </row>
-    <row r="70" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="21"/>
       <c r="B70" s="39"/>
       <c r="C70" s="22">
@@ -6760,7 +6777,7 @@
       <c r="J70" s="27"/>
       <c r="K70" s="24"/>
     </row>
-    <row r="71" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="21"/>
       <c r="B71" s="39" t="s">
         <v>62</v>
@@ -6788,7 +6805,7 @@
       <c r="J71" s="27"/>
       <c r="K71" s="24"/>
     </row>
-    <row r="72" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="21"/>
       <c r="B72" s="39" t="s">
         <v>26</v>
@@ -6813,7 +6830,7 @@
       </c>
       <c r="K72" s="24"/>
     </row>
-    <row r="73" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="21"/>
       <c r="B73" s="39" t="s">
         <v>39</v>
@@ -6831,7 +6848,7 @@
       </c>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21"/>
       <c r="B74" s="39"/>
       <c r="C74" s="22"/>
@@ -6844,7 +6861,7 @@
       <c r="J74" s="27"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A75" s="21">
         <v>9</v>
       </c>
@@ -6861,7 +6878,7 @@
       <c r="J75" s="27"/>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="21"/>
       <c r="B76" s="39" t="s">
         <v>57</v>
@@ -6889,7 +6906,7 @@
       <c r="J76" s="27"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="21"/>
       <c r="B77" s="39"/>
       <c r="C77" s="22">
@@ -6915,7 +6932,7 @@
       <c r="J77" s="27"/>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="21"/>
       <c r="B78" s="39"/>
       <c r="C78" s="22">
@@ -6941,7 +6958,7 @@
       <c r="J78" s="27"/>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="21"/>
       <c r="B79" s="39" t="s">
         <v>26</v>
@@ -6966,7 +6983,7 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="21"/>
       <c r="B80" s="39" t="s">
         <v>39</v>
@@ -6984,7 +7001,7 @@
       </c>
       <c r="K80" s="24"/>
     </row>
-    <row r="81" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="21"/>
       <c r="B81" s="39"/>
       <c r="C81" s="22"/>
@@ -6997,7 +7014,7 @@
       <c r="J81" s="27"/>
       <c r="K81" s="24"/>
     </row>
-    <row r="82" spans="1:31" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A82" s="21">
         <v>10</v>
       </c>
@@ -7026,7 +7043,7 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="21"/>
       <c r="B83" s="39"/>
       <c r="C83" s="22"/>
@@ -7039,7 +7056,7 @@
       <c r="J83" s="27"/>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="21">
         <v>11</v>
       </c>
@@ -7068,7 +7085,7 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="21"/>
       <c r="B85" s="39"/>
       <c r="C85" s="22"/>
@@ -7081,7 +7098,7 @@
       <c r="J85" s="27"/>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A86" s="9"/>
       <c r="B86" s="20" t="s">
         <v>16</v>
@@ -7102,7 +7119,7 @@
       <c r="P86" s="32"/>
       <c r="Q86" s="32"/>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
       <c r="M87" s="29"/>
       <c r="N87" s="30"/>
       <c r="O87" s="30"/>
@@ -7122,15 +7139,15 @@
       <c r="AD87" s="29"/>
       <c r="AE87" s="29"/>
     </row>
-    <row r="88" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B88" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C88" s="58">
+      <c r="C88" s="64">
         <f>J86</f>
         <v>448410.4337355725</v>
       </c>
-      <c r="D88" s="59"/>
+      <c r="D88" s="65"/>
       <c r="E88" s="10">
         <v>100</v>
       </c>
@@ -7160,14 +7177,14 @@
       <c r="AD88" s="12"/>
       <c r="AE88" s="12"/>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B89" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C89" s="62">
+      <c r="C89" s="67">
         <v>400000</v>
       </c>
-      <c r="D89" s="63"/>
+      <c r="D89" s="68"/>
       <c r="E89" s="10"/>
       <c r="M89" s="29"/>
       <c r="N89" s="30"/>
@@ -7189,15 +7206,15 @@
       <c r="AD89" s="29"/>
       <c r="AE89" s="29"/>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B90" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C90" s="62">
+      <c r="C90" s="67">
         <f>C89-C92-C93</f>
         <v>380000</v>
       </c>
-      <c r="D90" s="63"/>
+      <c r="D90" s="68"/>
       <c r="E90" s="10">
         <f>C90/C88*100</f>
         <v>84.743790824476193</v>
@@ -7222,15 +7239,15 @@
       <c r="AD90" s="29"/>
       <c r="AE90" s="29"/>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B91" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C91" s="64">
+      <c r="C91" s="69">
         <f>C88-C90</f>
         <v>68410.4337355725</v>
       </c>
-      <c r="D91" s="64"/>
+      <c r="D91" s="69"/>
       <c r="E91" s="10">
         <f>100-E90</f>
         <v>15.256209175523807</v>
@@ -7255,15 +7272,15 @@
       <c r="AD91" s="29"/>
       <c r="AE91" s="29"/>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B92" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C92" s="58">
+      <c r="C92" s="64">
         <f>C89*0.03</f>
         <v>12000</v>
       </c>
-      <c r="D92" s="59"/>
+      <c r="D92" s="65"/>
       <c r="E92" s="10">
         <v>3</v>
       </c>
@@ -7287,15 +7304,15 @@
       <c r="AD92" s="29"/>
       <c r="AE92" s="29"/>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B93" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C93" s="58">
+      <c r="C93" s="64">
         <f>C89*0.02</f>
         <v>8000</v>
       </c>
-      <c r="D93" s="59"/>
+      <c r="D93" s="65"/>
       <c r="E93" s="10">
         <v>2</v>
       </c>
@@ -7321,13 +7338,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C92:D92"/>
     <mergeCell ref="C93:D93"/>
     <mergeCell ref="A7:F7"/>
@@ -7336,6 +7346,13 @@
     <mergeCell ref="C89:D89"/>
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7356,139 +7373,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE93"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A33" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="69" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="61" t="s">
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -7523,7 +7540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -7548,7 +7565,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="38"/>
       <c r="B10" s="39" t="s">
         <v>46</v>
@@ -7578,7 +7595,7 @@
       <c r="K10" s="11"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A11" s="38"/>
       <c r="B11" s="39" t="s">
         <v>47</v>
@@ -7607,7 +7624,7 @@
       <c r="K11" s="11"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A12" s="38"/>
       <c r="B12" s="39" t="s">
         <v>51</v>
@@ -7637,7 +7654,7 @@
       <c r="K12" s="11"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A13" s="38"/>
       <c r="B13" s="39" t="s">
         <v>48</v>
@@ -7667,7 +7684,7 @@
       <c r="K13" s="11"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
       <c r="B14" s="39" t="s">
         <v>50</v>
@@ -7697,7 +7714,7 @@
       <c r="K14" s="11"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
       <c r="B15" s="39"/>
       <c r="C15" s="40">
@@ -7725,7 +7742,7 @@
       <c r="K15" s="11"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38"/>
       <c r="B16" s="39"/>
       <c r="C16" s="40">
@@ -7753,7 +7770,7 @@
       <c r="K16" s="11"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
       <c r="B17" s="39"/>
       <c r="C17" s="40">
@@ -7781,7 +7798,7 @@
       <c r="K17" s="11"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="39" t="s">
         <v>49</v>
@@ -7811,7 +7828,7 @@
       <c r="K18" s="11"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="38"/>
       <c r="B19" s="39"/>
       <c r="C19" s="40">
@@ -7839,7 +7856,7 @@
       <c r="K19" s="11"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
       <c r="B20" s="39"/>
       <c r="C20" s="40">
@@ -7867,7 +7884,7 @@
       <c r="K20" s="11"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="39"/>
       <c r="C21" s="40">
@@ -7895,7 +7912,7 @@
       <c r="K21" s="11"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A22" s="38"/>
       <c r="B22" s="39" t="s">
         <v>60</v>
@@ -7925,7 +7942,7 @@
       <c r="K22" s="11"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21"/>
       <c r="B23" s="39" t="s">
         <v>26</v>
@@ -7950,7 +7967,7 @@
       </c>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="39" t="s">
         <v>39</v>
@@ -7968,7 +7985,7 @@
       </c>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="37"/>
       <c r="C25" s="22"/>
@@ -7981,7 +7998,7 @@
       <c r="J25" s="27"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A26" s="38">
         <v>2</v>
       </c>
@@ -7999,7 +8016,7 @@
       <c r="K26" s="11"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="38"/>
       <c r="B27" s="39"/>
       <c r="C27" s="40">
@@ -8024,7 +8041,7 @@
       <c r="K27" s="11"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
       <c r="B28" s="39" t="s">
         <v>26</v>
@@ -8049,7 +8066,7 @@
       </c>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
       <c r="B29" s="39" t="s">
         <v>39</v>
@@ -8067,7 +8084,7 @@
       </c>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21"/>
       <c r="B30" s="39"/>
       <c r="C30" s="22"/>
@@ -8080,7 +8097,7 @@
       <c r="J30" s="27"/>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
         <v>3</v>
       </c>
@@ -8097,7 +8114,7 @@
       <c r="J31" s="27"/>
       <c r="K31" s="24"/>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21"/>
       <c r="B32" s="39" t="s">
         <v>57</v>
@@ -8125,7 +8142,7 @@
       <c r="J32" s="27"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
       <c r="B33" s="39" t="s">
         <v>26</v>
@@ -8150,7 +8167,7 @@
       </c>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21"/>
       <c r="B34" s="39"/>
       <c r="C34" s="22"/>
@@ -8163,12 +8180,12 @@
       <c r="J34" s="27"/>
       <c r="K34" s="24"/>
     </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A35" s="21">
         <v>4</v>
       </c>
-      <c r="B35" s="37" t="s">
-        <v>54</v>
+      <c r="B35" s="83" t="s">
+        <v>93</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="23"/>
@@ -8180,35 +8197,35 @@
       <c r="J35" s="27"/>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21"/>
-      <c r="B36" s="39" t="str">
-        <f>B32</f>
-        <v>-for footing</v>
+      <c r="B36" s="39" t="s">
+        <v>56</v>
       </c>
       <c r="C36" s="22">
-        <f>C32</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D36" s="23">
-        <f>D32</f>
-        <v>0.45</v>
+        <f>(29.917-0.75-0.75)/3.281</f>
+        <v>8.6610789393477603</v>
       </c>
       <c r="E36" s="24">
-        <f>E32</f>
-        <v>0.45</v>
-      </c>
-      <c r="F36" s="24"/>
+        <f>(9.917+15-0.75-0.75)/3.281</f>
+        <v>7.1371533069186226</v>
+      </c>
+      <c r="F36" s="24">
+        <v>0.15</v>
+      </c>
       <c r="G36" s="36">
         <f>PRODUCT(C36:F36)</f>
-        <v>2.4300000000000002</v>
+        <v>9.2723172290173643</v>
       </c>
       <c r="H36" s="25"/>
       <c r="I36" s="26"/>
       <c r="J36" s="27"/>
       <c r="K36" s="24"/>
     </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21"/>
       <c r="B37" s="39" t="s">
         <v>63</v>
@@ -8234,7 +8251,7 @@
       <c r="J37" s="27"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21"/>
       <c r="B38" s="39"/>
       <c r="C38" s="22">
@@ -8258,7 +8275,7 @@
       <c r="J38" s="27"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21"/>
       <c r="B39" s="39" t="s">
         <v>26</v>
@@ -8269,21 +8286,21 @@
       <c r="F39" s="24"/>
       <c r="G39" s="27">
         <f>SUM(G36:G38)</f>
-        <v>2.4300000000000002</v>
+        <v>9.2723172290173643</v>
       </c>
       <c r="H39" s="25" t="s">
         <v>33</v>
       </c>
       <c r="I39" s="26">
-        <v>1014.97</v>
+        <v>4434.5200000000004</v>
       </c>
       <c r="J39" s="27">
         <f>G39*I39</f>
-        <v>2466.3771000000002</v>
+        <v>41118.276198422085</v>
       </c>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
       <c r="B40" s="39" t="s">
         <v>39</v>
@@ -8296,12 +8313,12 @@
       <c r="H40" s="25"/>
       <c r="I40" s="26"/>
       <c r="J40" s="27">
-        <f>0.13*G39*8617.2/10</f>
-        <v>272.21734800000002</v>
+        <f>0.13*G39*14817.6/5</f>
+        <v>3572.2306820898802</v>
       </c>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="21"/>
       <c r="B41" s="39"/>
       <c r="C41" s="22"/>
@@ -8314,7 +8331,7 @@
       <c r="J41" s="27"/>
       <c r="K41" s="24"/>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A42" s="21">
         <v>5</v>
       </c>
@@ -8331,7 +8348,7 @@
       <c r="J42" s="27"/>
       <c r="K42" s="24"/>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21"/>
       <c r="B43" s="39" t="str">
         <f>B32</f>
@@ -8339,29 +8356,29 @@
       </c>
       <c r="C43" s="22">
         <f>C36</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D43" s="23">
         <f>D36</f>
-        <v>0.45</v>
+        <v>8.6610789393477603</v>
       </c>
       <c r="E43" s="24">
         <f>E36</f>
-        <v>0.45</v>
+        <v>7.1371533069186226</v>
       </c>
       <c r="F43" s="24">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="G43" s="36">
         <f>PRODUCT(C43:F43)</f>
-        <v>0.18225</v>
+        <v>4.6361586145086822</v>
       </c>
       <c r="H43" s="25"/>
       <c r="I43" s="26"/>
       <c r="J43" s="27"/>
       <c r="K43" s="24"/>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="21"/>
       <c r="B44" s="39" t="s">
         <v>63</v>
@@ -8389,7 +8406,7 @@
       <c r="J44" s="27"/>
       <c r="K44" s="24"/>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
       <c r="B45" s="39"/>
       <c r="C45" s="22">
@@ -8415,7 +8432,7 @@
       <c r="J45" s="27"/>
       <c r="K45" s="24"/>
     </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21"/>
       <c r="B46" s="39" t="s">
         <v>26</v>
@@ -8426,7 +8443,7 @@
       <c r="F46" s="24"/>
       <c r="G46" s="27">
         <f>SUM(G43:G45)</f>
-        <v>0.18225</v>
+        <v>4.6361586145086822</v>
       </c>
       <c r="H46" s="25" t="s">
         <v>42</v>
@@ -8436,11 +8453,11 @@
       </c>
       <c r="J46" s="27">
         <f>G46*I46</f>
-        <v>2366.1699749999998</v>
+        <v>60191.710908027671</v>
       </c>
       <c r="K46" s="24"/>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="21"/>
       <c r="B47" s="39" t="s">
         <v>39</v>
@@ -8454,11 +8471,11 @@
       <c r="I47" s="26"/>
       <c r="J47" s="27">
         <f>0.13*G46*8078.11</f>
-        <v>191.39062117500001</v>
+        <v>4868.6819045083348</v>
       </c>
       <c r="K47" s="24"/>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="21"/>
       <c r="B48" s="39"/>
       <c r="C48" s="22"/>
@@ -8471,7 +8488,7 @@
       <c r="J48" s="27"/>
       <c r="K48" s="24"/>
     </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="1" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="21">
         <v>6</v>
       </c>
@@ -8498,7 +8515,7 @@
       <c r="J49" s="27"/>
       <c r="K49" s="24"/>
     </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="21"/>
       <c r="B50" s="39" t="str">
         <f>B44</f>
@@ -8528,7 +8545,7 @@
       <c r="J50" s="27"/>
       <c r="K50" s="24"/>
     </row>
-    <row r="51" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="21"/>
       <c r="B51" s="39" t="s">
         <v>69</v>
@@ -8558,7 +8575,7 @@
       <c r="J51" s="27"/>
       <c r="K51" s="24"/>
     </row>
-    <row r="52" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21"/>
       <c r="B52" s="39" t="s">
         <v>63</v>
@@ -8587,7 +8604,7 @@
       <c r="J52" s="27"/>
       <c r="K52" s="24"/>
     </row>
-    <row r="53" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="21"/>
       <c r="B53" s="39" t="s">
         <v>69</v>
@@ -8617,7 +8634,7 @@
       <c r="J53" s="27"/>
       <c r="K53" s="24"/>
     </row>
-    <row r="54" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="21"/>
       <c r="B54" s="39" t="s">
         <v>26</v>
@@ -8642,7 +8659,7 @@
       </c>
       <c r="K54" s="24"/>
     </row>
-    <row r="55" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="21"/>
       <c r="B55" s="39" t="s">
         <v>39</v>
@@ -8660,7 +8677,7 @@
       </c>
       <c r="K55" s="24"/>
     </row>
-    <row r="56" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="21"/>
       <c r="B56" s="39"/>
       <c r="C56" s="22"/>
@@ -8673,7 +8690,7 @@
       <c r="J56" s="27"/>
       <c r="K56" s="24"/>
     </row>
-    <row r="57" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A57" s="21">
         <v>6</v>
       </c>
@@ -8690,7 +8707,7 @@
       <c r="J57" s="27"/>
       <c r="K57" s="24"/>
     </row>
-    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="21"/>
       <c r="B58" s="39" t="str">
         <f>B32</f>
@@ -8716,7 +8733,7 @@
       <c r="J58" s="27"/>
       <c r="K58" s="24"/>
     </row>
-    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="21"/>
       <c r="B59" s="39" t="s">
         <v>68</v>
@@ -8741,7 +8758,7 @@
       <c r="J59" s="27"/>
       <c r="K59" s="24"/>
     </row>
-    <row r="60" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="21"/>
       <c r="B60" s="39" t="s">
         <v>63</v>
@@ -8768,7 +8785,7 @@
       <c r="J60" s="27"/>
       <c r="K60" s="24"/>
     </row>
-    <row r="61" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="21"/>
       <c r="B61" s="39"/>
       <c r="C61" s="22">
@@ -8793,7 +8810,7 @@
       <c r="J61" s="27"/>
       <c r="K61" s="24"/>
     </row>
-    <row r="62" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="21"/>
       <c r="B62" s="39"/>
       <c r="C62" s="22">
@@ -8818,7 +8835,7 @@
       <c r="J62" s="27"/>
       <c r="K62" s="24"/>
     </row>
-    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="21"/>
       <c r="B63" s="39" t="s">
         <v>26</v>
@@ -8843,7 +8860,7 @@
       </c>
       <c r="K63" s="24"/>
     </row>
-    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="21"/>
       <c r="B64" s="39" t="s">
         <v>39</v>
@@ -8861,7 +8878,7 @@
       </c>
       <c r="K64" s="24"/>
     </row>
-    <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="21"/>
       <c r="B65" s="39"/>
       <c r="C65" s="22"/>
@@ -8874,7 +8891,7 @@
       <c r="J65" s="27"/>
       <c r="K65" s="24"/>
     </row>
-    <row r="66" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A66" s="21">
         <v>7</v>
       </c>
@@ -8891,7 +8908,7 @@
       <c r="J66" s="27"/>
       <c r="K66" s="24"/>
     </row>
-    <row r="67" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="21"/>
       <c r="B67" s="39" t="str">
         <f>B32</f>
@@ -8899,29 +8916,29 @@
       </c>
       <c r="C67" s="22">
         <f>C43</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D67" s="23">
         <f>D43</f>
-        <v>0.45</v>
+        <v>8.6610789393477603</v>
       </c>
       <c r="E67" s="24">
         <f>E43</f>
-        <v>0.45</v>
+        <v>7.1371533069186226</v>
       </c>
       <c r="F67" s="24">
         <v>0.45</v>
       </c>
       <c r="G67" s="36">
         <f>PRODUCT(C67:F67)</f>
-        <v>1.0935000000000001</v>
+        <v>27.816951687052097</v>
       </c>
       <c r="H67" s="25"/>
       <c r="I67" s="26"/>
       <c r="J67" s="27"/>
       <c r="K67" s="24"/>
     </row>
-    <row r="68" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="21"/>
       <c r="B68" s="39" t="str">
         <f>B59</f>
@@ -8929,7 +8946,7 @@
       </c>
       <c r="C68" s="22">
         <f>C67</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D68" s="23">
         <v>0.3</v>
@@ -8943,14 +8960,14 @@
       </c>
       <c r="G68" s="36">
         <f>PRODUCT(C68:F68)</f>
-        <v>0.80999999999999983</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="H68" s="25"/>
       <c r="I68" s="26"/>
       <c r="J68" s="27"/>
       <c r="K68" s="24"/>
     </row>
-    <row r="69" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="21"/>
       <c r="B69" s="39" t="s">
         <v>61</v>
@@ -8978,7 +8995,7 @@
       <c r="J69" s="27"/>
       <c r="K69" s="24"/>
     </row>
-    <row r="70" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="21"/>
       <c r="B70" s="39"/>
       <c r="C70" s="22">
@@ -9004,7 +9021,7 @@
       <c r="J70" s="27"/>
       <c r="K70" s="24"/>
     </row>
-    <row r="71" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="21"/>
       <c r="B71" s="39" t="s">
         <v>62</v>
@@ -9032,7 +9049,7 @@
       <c r="J71" s="27"/>
       <c r="K71" s="24"/>
     </row>
-    <row r="72" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="21"/>
       <c r="B72" s="39" t="s">
         <v>26</v>
@@ -9043,7 +9060,7 @@
       <c r="F72" s="24"/>
       <c r="G72" s="27">
         <f>SUM(G67:G71)</f>
-        <v>1.9035</v>
+        <v>27.884451687052096</v>
       </c>
       <c r="H72" s="25" t="s">
         <v>42</v>
@@ -9053,11 +9070,11 @@
       </c>
       <c r="J72" s="27">
         <f>G72*I72</f>
-        <v>25828.401149999998</v>
+        <v>378361.33649644116</v>
       </c>
       <c r="K72" s="24"/>
     </row>
-    <row r="73" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="21"/>
       <c r="B73" s="39" t="s">
         <v>39</v>
@@ -9071,11 +9088,11 @@
       <c r="I73" s="26"/>
       <c r="J73" s="27">
         <f>0.13*G72*9524.2</f>
-        <v>2356.810911</v>
+        <v>34525.022318516807</v>
       </c>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21"/>
       <c r="B74" s="39"/>
       <c r="C74" s="22"/>
@@ -9088,7 +9105,7 @@
       <c r="J74" s="27"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A75" s="21">
         <v>8</v>
       </c>
@@ -9105,7 +9122,7 @@
       <c r="J75" s="27"/>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="21"/>
       <c r="B76" s="39" t="s">
         <v>57</v>
@@ -9133,7 +9150,7 @@
       <c r="J76" s="27"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="21"/>
       <c r="B77" s="39"/>
       <c r="C77" s="22">
@@ -9159,7 +9176,7 @@
       <c r="J77" s="27"/>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="21"/>
       <c r="B78" s="39"/>
       <c r="C78" s="22">
@@ -9185,7 +9202,7 @@
       <c r="J78" s="27"/>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="21"/>
       <c r="B79" s="39" t="s">
         <v>26</v>
@@ -9210,7 +9227,7 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="21"/>
       <c r="B80" s="39" t="s">
         <v>39</v>
@@ -9228,7 +9245,7 @@
       </c>
       <c r="K80" s="24"/>
     </row>
-    <row r="81" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="21"/>
       <c r="B81" s="39"/>
       <c r="C81" s="22"/>
@@ -9241,7 +9258,7 @@
       <c r="J81" s="27"/>
       <c r="K81" s="24"/>
     </row>
-    <row r="82" spans="1:31" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A82" s="21">
         <v>9</v>
       </c>
@@ -9270,7 +9287,7 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="21"/>
       <c r="B83" s="39"/>
       <c r="C83" s="22"/>
@@ -9283,7 +9300,7 @@
       <c r="J83" s="27"/>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="21">
         <v>10</v>
       </c>
@@ -9312,7 +9329,7 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="21"/>
       <c r="B85" s="39"/>
       <c r="C85" s="22"/>
@@ -9325,7 +9342,7 @@
       <c r="J85" s="27"/>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A86" s="9"/>
       <c r="B86" s="20" t="s">
         <v>16</v>
@@ -9339,14 +9356,14 @@
       <c r="I86" s="7"/>
       <c r="J86" s="7">
         <f>SUM(J10:J85)</f>
-        <v>455134.61821821146</v>
+        <v>944290.50962104241</v>
       </c>
       <c r="K86" s="4"/>
       <c r="M86" s="29"/>
       <c r="P86" s="32"/>
       <c r="Q86" s="32"/>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
       <c r="M87" s="29"/>
       <c r="N87" s="30"/>
       <c r="O87" s="30"/>
@@ -9366,15 +9383,15 @@
       <c r="AD87" s="29"/>
       <c r="AE87" s="29"/>
     </row>
-    <row r="88" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B88" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C88" s="58">
+      <c r="C88" s="64">
         <f>J86</f>
-        <v>455134.61821821146</v>
-      </c>
-      <c r="D88" s="59"/>
+        <v>944290.50962104241</v>
+      </c>
+      <c r="D88" s="65"/>
       <c r="E88" s="10">
         <v>100</v>
       </c>
@@ -9404,14 +9421,14 @@
       <c r="AD88" s="12"/>
       <c r="AE88" s="12"/>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B89" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C89" s="62">
+      <c r="C89" s="67">
         <v>400000</v>
       </c>
-      <c r="D89" s="63"/>
+      <c r="D89" s="68"/>
       <c r="E89" s="10"/>
       <c r="M89" s="29"/>
       <c r="N89" s="30"/>
@@ -9433,18 +9450,18 @@
       <c r="AD89" s="29"/>
       <c r="AE89" s="29"/>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B90" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C90" s="62">
+      <c r="C90" s="67">
         <f>C89-C92-C93</f>
         <v>380000</v>
       </c>
-      <c r="D90" s="63"/>
+      <c r="D90" s="68"/>
       <c r="E90" s="10">
         <f>C90/C88*100</f>
-        <v>83.491781286083437</v>
+        <v>40.24185312976401</v>
       </c>
       <c r="M90" s="29"/>
       <c r="N90" s="29"/>
@@ -9466,18 +9483,18 @@
       <c r="AD90" s="29"/>
       <c r="AE90" s="29"/>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B91" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C91" s="64">
+      <c r="C91" s="69">
         <f>C88-C90</f>
-        <v>75134.618218211457</v>
-      </c>
-      <c r="D91" s="64"/>
+        <v>564290.50962104241</v>
+      </c>
+      <c r="D91" s="69"/>
       <c r="E91" s="10">
         <f>100-E90</f>
-        <v>16.508218713916563</v>
+        <v>59.75814687023599</v>
       </c>
       <c r="M91" s="29"/>
       <c r="N91" s="29"/>
@@ -9499,15 +9516,15 @@
       <c r="AD91" s="29"/>
       <c r="AE91" s="29"/>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B92" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C92" s="58">
+      <c r="C92" s="64">
         <f>C89*0.03</f>
         <v>12000</v>
       </c>
-      <c r="D92" s="59"/>
+      <c r="D92" s="65"/>
       <c r="E92" s="10">
         <v>3</v>
       </c>
@@ -9531,15 +9548,15 @@
       <c r="AD92" s="29"/>
       <c r="AE92" s="29"/>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B93" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C93" s="58">
+      <c r="C93" s="64">
         <f>C89*0.02</f>
         <v>8000</v>
       </c>
-      <c r="D93" s="59"/>
+      <c r="D93" s="65"/>
       <c r="E93" s="10">
         <v>2</v>
       </c>
@@ -9565,6 +9582,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C92:D92"/>
     <mergeCell ref="C93:D93"/>
     <mergeCell ref="A7:F7"/>
@@ -9573,13 +9597,6 @@
     <mergeCell ref="C89:D89"/>
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9594,110 +9611,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-    </row>
-    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="79" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+    </row>
+    <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="80" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+    </row>
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="44" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="44"/>
-      <c r="C6" s="81">
+      <c r="C6" s="70">
         <f>F40</f>
-        <v>449634.3141001144</v>
-      </c>
-      <c r="D6" s="82"/>
+        <v>944290.50962104241</v>
+      </c>
+      <c r="D6" s="71"/>
       <c r="E6" s="45"/>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
@@ -9705,90 +9722,90 @@
         <v>74</v>
       </c>
       <c r="I6" s="44"/>
-      <c r="J6" s="81">
+      <c r="J6" s="70">
         <f>I40</f>
-        <v>335678.96121266932</v>
-      </c>
-      <c r="K6" s="82"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>436737.3588138193</v>
+      </c>
+      <c r="K6" s="71"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="46" t="s">
         <v>75</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="I7" s="74" t="s">
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="I7" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="str">
-        <f>'[6]callapsible gate added'!A6:F6</f>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="77" t="str">
+        <f>'[10]callapsible gate added'!A6:F6</f>
         <v>Project:- राष्ट्रिय मा. बि. वाल निर्माण</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="I8" s="76" t="s">
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="I8" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="77" t="str">
-        <f>'[6]callapsible gate added'!A7:F7</f>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="79" t="str">
+        <f>'[10]callapsible gate added'!A7:F7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="I9" s="76" t="s">
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="I9" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="71" t="s">
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72" t="s">
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="71" t="s">
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="K11" s="70" t="s">
+      <c r="K11" s="80" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="81"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
       <c r="D12" s="47" t="s">
         <v>84</v>
       </c>
@@ -9807,10 +9824,10 @@
       <c r="I12" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="71"/>
-      <c r="K12" s="70"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J12" s="81"/>
+      <c r="K12" s="80"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="48">
         <f>'400000 final'!A9</f>
         <v>1</v>
@@ -9836,49 +9853,49 @@
         <v>173534.2626316367</v>
       </c>
       <c r="G13" s="10">
-        <f>V!G22</f>
-        <v>748.31228210911308</v>
+        <f>V!G24</f>
+        <v>656.19979274611399</v>
       </c>
       <c r="H13" s="10">
-        <f>V!I22</f>
+        <f>V!I24</f>
         <v>181.17</v>
       </c>
       <c r="I13" s="10">
         <f>G13*H13</f>
-        <v>135571.73614970801</v>
+        <v>118883.71645181347</v>
       </c>
       <c r="J13" s="50">
         <f>I13-F13</f>
-        <v>-37962.526481928682</v>
+        <v>-54650.546179823228</v>
       </c>
       <c r="K13" s="51"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="48"/>
       <c r="B14" s="53" t="str">
-        <f>'[6]callapsible gate added'!B106</f>
+        <f>'[10]callapsible gate added'!B106</f>
         <v>VAT calculation</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10">
-        <f>'[6]callapsible gate added'!J106</f>
-        <v>6803.3352934950008</v>
+        <f>'400000 final'!J24</f>
+        <v>12303.63941159207</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10">
-        <f>V!J23</f>
-        <v>9612.083116578815</v>
+        <f>V!J25</f>
+        <v>8428.8967316959479</v>
       </c>
       <c r="J14" s="50">
         <f>I14-F14</f>
-        <v>2808.7478230838142</v>
+        <v>-3874.7426798961224</v>
       </c>
       <c r="K14" s="51"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="54"/>
       <c r="B15" s="54"/>
       <c r="C15" s="10"/>
@@ -9891,7 +9908,7 @@
       <c r="J15" s="50"/>
       <c r="K15" s="51"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A16" s="48">
         <f>'400000 final'!A26</f>
         <v>2</v>
@@ -9917,24 +9934,24 @@
         <v>133513.31221729465</v>
       </c>
       <c r="G16" s="10">
-        <f>V!G27</f>
-        <v>79.361716219872974</v>
+        <f>V!G29</f>
+        <v>81.49897926553875</v>
       </c>
       <c r="H16" s="10">
-        <f>V!I27</f>
+        <f>V!I29</f>
         <v>1070.9000000000001</v>
       </c>
       <c r="I16" s="10">
         <f>G16*H16</f>
-        <v>84988.46189986197</v>
+        <v>87277.256895465456</v>
       </c>
       <c r="J16" s="50">
         <f>I16-F16</f>
-        <v>-48524.850317432676</v>
+        <v>-46236.05532182919</v>
       </c>
       <c r="K16" s="51"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="48"/>
       <c r="B17" s="53" t="str">
         <f>'400000 final'!B29</f>
@@ -9950,16 +9967,16 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10">
-        <f>V!J28</f>
-        <v>8859.8777157964814</v>
+        <f>V!J30</f>
+        <v>9098.4800310315404</v>
       </c>
       <c r="J17" s="50">
         <f>I17-F17</f>
-        <v>-5058.6189040147765</v>
+        <v>-4820.0165887797175</v>
       </c>
       <c r="K17" s="51"/>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="54"/>
       <c r="B18" s="54"/>
       <c r="C18" s="10"/>
@@ -9972,7 +9989,7 @@
       <c r="J18" s="50"/>
       <c r="K18" s="51"/>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A19" s="48">
         <f>'400000 final'!A31</f>
         <v>3</v>
@@ -9998,24 +10015,24 @@
         <v>1434.4963230722342</v>
       </c>
       <c r="G19" s="10">
-        <f>V!G32</f>
-        <v>1.4417555623285585</v>
+        <f>V!G37</f>
+        <v>4.8749606827186831</v>
       </c>
       <c r="H19" s="10">
-        <f>V!I32</f>
+        <f>V!I37</f>
         <v>663.31</v>
       </c>
       <c r="I19" s="10">
         <f>G19*H19</f>
-        <v>956.33088204815601</v>
+        <v>3233.6101704541293</v>
       </c>
       <c r="J19" s="50">
         <f>I19-F19</f>
-        <v>-478.16544102407818</v>
+        <v>1799.1138473818951</v>
       </c>
       <c r="K19" s="51"/>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="54"/>
       <c r="B20" s="54"/>
       <c r="C20" s="10"/>
@@ -10028,14 +10045,14 @@
       <c r="J20" s="50"/>
       <c r="K20" s="51"/>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="48">
         <f>'400000 final'!A35</f>
         <v>4</v>
       </c>
       <c r="B21" s="49" t="str">
         <f>'400000 final'!B35</f>
-        <v>;'Vvf O{6f RofK6f] 5fKg] sfd</v>
+        <v>Providing and laying of hand pack locally available Stone soling with 150 to 200 mm thick stones and packing with smaller stone on prepared surface as per Drawing and Technical Specifications.</v>
       </c>
       <c r="C21" s="10" t="str">
         <f>'400000 final'!H39</f>
@@ -10043,35 +10060,35 @@
       </c>
       <c r="D21" s="10">
         <f>'400000 final'!G39</f>
-        <v>2.4300000000000002</v>
+        <v>9.2723172290173643</v>
       </c>
       <c r="E21" s="10">
         <f>'400000 final'!I39</f>
-        <v>1014.97</v>
+        <v>4434.5200000000004</v>
       </c>
       <c r="F21" s="10">
         <f>D21*E21</f>
-        <v>2466.3771000000002</v>
+        <v>41118.276198422085</v>
       </c>
       <c r="G21" s="10">
-        <f>V!G38</f>
-        <v>7.5424017067967091</v>
+        <f>V!G44</f>
+        <v>3.1132442852788786</v>
       </c>
       <c r="H21" s="10">
-        <f>V!I38</f>
+        <f>V!I44</f>
         <v>1014.97</v>
       </c>
       <c r="I21" s="10">
         <f>G21*H21</f>
-        <v>7655.311460347456</v>
+        <v>3159.8495522295034</v>
       </c>
       <c r="J21" s="50">
         <f>I21-F21</f>
-        <v>5188.9343603474554</v>
+        <v>-37958.42664619258</v>
       </c>
       <c r="K21" s="51"/>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="48"/>
       <c r="B22" s="53" t="str">
         <f>'400000 final'!B40</f>
@@ -10082,21 +10099,21 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10">
         <f>'400000 final'!J40</f>
-        <v>272.21734800000002</v>
+        <v>3572.2306820898802</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10">
-        <f>V!J39</f>
-        <v>844.92699184151184</v>
+        <f>V!J45</f>
+        <v>348.75683251636701</v>
       </c>
       <c r="J22" s="50">
         <f>I22-F22</f>
-        <v>572.70964384151182</v>
+        <v>-3223.4738495735132</v>
       </c>
       <c r="K22" s="51"/>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="54"/>
       <c r="B23" s="54"/>
       <c r="C23" s="10"/>
@@ -10109,7 +10126,7 @@
       <c r="J23" s="50"/>
       <c r="K23" s="51"/>
     </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" s="48">
         <f>'400000 final'!A42</f>
         <v>5</v>
@@ -10124,7 +10141,7 @@
       </c>
       <c r="D24" s="10">
         <f>'400000 final'!G46</f>
-        <v>0.18225</v>
+        <v>4.6361586145086822</v>
       </c>
       <c r="E24" s="10">
         <f>'400000 final'!I46</f>
@@ -10132,27 +10149,27 @@
       </c>
       <c r="F24" s="10">
         <f>D24*E24</f>
-        <v>2366.1699749999998</v>
+        <v>60191.710908027671</v>
       </c>
       <c r="G24" s="10">
-        <f>V!G45</f>
-        <v>0.5656801280097532</v>
+        <f>V!G49</f>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="H24" s="10">
-        <f>V!I45</f>
+        <f>V!I49</f>
         <v>12983.1</v>
       </c>
       <c r="I24" s="10">
         <f>G24*H24</f>
-        <v>7344.2816699634268</v>
+        <v>58.423949999999998</v>
       </c>
       <c r="J24" s="50">
         <f>I24-F24</f>
-        <v>4978.111694963427</v>
+        <v>-60133.286958027675</v>
       </c>
       <c r="K24" s="51"/>
     </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="48"/>
       <c r="B25" s="53" t="str">
         <f>'400000 final'!B47</f>
@@ -10163,21 +10180,21 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10">
         <f>'400000 final'!J47</f>
-        <v>191.39062117500001</v>
+        <v>4868.6819045083348</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10">
-        <f>V!J46</f>
-        <v>594.0514188539928</v>
+        <f>V!J50</f>
+        <v>4.7256943500000004</v>
       </c>
       <c r="J25" s="50">
         <f>I25-F25</f>
-        <v>402.66079767899282</v>
+        <v>-4863.9562101583351</v>
       </c>
       <c r="K25" s="51"/>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="54"/>
       <c r="B26" s="54"/>
       <c r="C26" s="10"/>
@@ -10190,7 +10207,7 @@
       <c r="J26" s="50"/>
       <c r="K26" s="51"/>
     </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A27" s="48">
         <f>'400000 final'!A57</f>
         <v>6</v>
@@ -10216,24 +10233,24 @@
         <v>12852.496799999999</v>
       </c>
       <c r="G27" s="10">
-        <f>V!G63</f>
-        <v>2.88</v>
+        <f>V!G64</f>
+        <v>11.400327298587829</v>
       </c>
       <c r="H27" s="10">
-        <f>V!I63</f>
+        <f>V!I64</f>
         <v>915.42</v>
       </c>
       <c r="I27" s="10">
         <f>G27*H27</f>
-        <v>2636.4096</v>
+        <v>10436.08761567327</v>
       </c>
       <c r="J27" s="50">
         <f>I27-F27</f>
-        <v>-10216.087199999998</v>
+        <v>-2416.4091843267288</v>
       </c>
       <c r="K27" s="51"/>
     </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="48"/>
       <c r="B28" s="53" t="str">
         <f>'400000 final'!B64</f>
@@ -10249,16 +10266,16 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10">
-        <f>V!J64</f>
-        <v>175.32354527999999</v>
+        <f>V!J65</f>
+        <v>694.00895810443865</v>
       </c>
       <c r="J28" s="50">
         <f>I28-F28</f>
-        <v>-679.37873795999997</v>
+        <v>-160.69332513556128</v>
       </c>
       <c r="K28" s="51"/>
     </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="54"/>
       <c r="B29" s="54"/>
       <c r="C29" s="10"/>
@@ -10271,7 +10288,7 @@
       <c r="J29" s="50"/>
       <c r="K29" s="51"/>
     </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A30" s="48">
         <f>'400000 final'!A66</f>
         <v>7</v>
@@ -10286,7 +10303,7 @@
       </c>
       <c r="D30" s="10">
         <f>'400000 final'!G72</f>
-        <v>1.9035</v>
+        <v>27.884451687052096</v>
       </c>
       <c r="E30" s="10">
         <f>'400000 final'!I72</f>
@@ -10294,27 +10311,27 @@
       </c>
       <c r="F30" s="10">
         <f>D30*E30</f>
-        <v>25828.401149999998</v>
+        <v>378361.33649644116</v>
       </c>
       <c r="G30" s="10">
-        <f>V!G73</f>
-        <v>0.216</v>
+        <f>V!G72</f>
+        <v>6.4099442617095725</v>
       </c>
       <c r="H30" s="10">
-        <f>V!I73</f>
+        <f>V!I72</f>
         <v>13568.9</v>
       </c>
       <c r="I30" s="10">
         <f>G30*H30</f>
-        <v>2930.8824</v>
+        <v>86975.892692711015</v>
       </c>
       <c r="J30" s="50">
         <f>I30-F30</f>
-        <v>-22897.518749999999</v>
+        <v>-291385.44380373013</v>
       </c>
       <c r="K30" s="51"/>
     </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="48"/>
       <c r="B31" s="53" t="str">
         <f>'400000 final'!B73</f>
@@ -10325,21 +10342,21 @@
       <c r="E31" s="10"/>
       <c r="F31" s="10">
         <f>'400000 final'!J73</f>
-        <v>2356.810911</v>
+        <v>34525.022318516807</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10">
-        <f>V!J74</f>
-        <v>267.43953600000003</v>
+        <f>V!J73</f>
+        <v>7936.4468478586614</v>
       </c>
       <c r="J31" s="50">
         <f>I31-F31</f>
-        <v>-2089.3713750000002</v>
+        <v>-26588.575470658147</v>
       </c>
       <c r="K31" s="51"/>
     </row>
-    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="54"/>
       <c r="B32" s="54"/>
       <c r="C32" s="10"/>
@@ -10352,7 +10369,7 @@
       <c r="J32" s="50"/>
       <c r="K32" s="51"/>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A33" s="48">
         <f>'400000 final'!A75</f>
         <v>8</v>
@@ -10379,7 +10396,7 @@
       </c>
       <c r="G33" s="10">
         <f>V!G80</f>
-        <v>4.2820237732398656</v>
+        <v>6.3490663750314562</v>
       </c>
       <c r="H33" s="10">
         <f>V!I80</f>
@@ -10387,15 +10404,15 @@
       </c>
       <c r="I33" s="10">
         <f>G33*H33</f>
-        <v>61501.679769338611</v>
+        <v>91190.116568646801</v>
       </c>
       <c r="J33" s="50">
         <f>I33-F33</f>
-        <v>0</v>
+        <v>29688.436799308191</v>
       </c>
       <c r="K33" s="51"/>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="48"/>
       <c r="B34" s="53" t="str">
         <f>'400000 final'!B80</f>
@@ -10412,15 +10429,15 @@
       <c r="H34" s="10"/>
       <c r="I34" s="10">
         <f>V!J81</f>
-        <v>5740.1650570508991</v>
+        <v>8511.0898212686934</v>
       </c>
       <c r="J34" s="50">
         <f>I34-F34</f>
-        <v>0</v>
+        <v>2770.9247642177943</v>
       </c>
       <c r="K34" s="51"/>
     </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="54"/>
       <c r="B35" s="54"/>
       <c r="C35" s="10"/>
@@ -10433,7 +10450,7 @@
       <c r="J35" s="50"/>
       <c r="K35" s="51"/>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="48">
         <f>'400000 final'!A82</f>
         <v>9</v>
@@ -10460,7 +10477,7 @@
       </c>
       <c r="G36" s="10">
         <f>V!G83</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="10">
         <f>V!I83</f>
@@ -10468,15 +10485,15 @@
       </c>
       <c r="I36" s="10">
         <f>G36*H36</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J36" s="50">
         <f>I36-F36</f>
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="K36" s="51"/>
     </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="54"/>
       <c r="B37" s="54"/>
       <c r="C37" s="10"/>
@@ -10489,7 +10506,7 @@
       <c r="J37" s="50"/>
       <c r="K37" s="51"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="48">
         <f>'400000 final'!A84</f>
         <v>10</v>
@@ -10520,19 +10537,19 @@
       </c>
       <c r="H38" s="10">
         <f>V!I85</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I38" s="10">
         <f>G38*H38</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="J38" s="50">
         <f>I38-F38</f>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="K38" s="51"/>
     </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="54"/>
       <c r="B39" s="54"/>
       <c r="C39" s="10"/>
@@ -10545,7 +10562,7 @@
       <c r="J39" s="50"/>
       <c r="K39" s="51"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="56" t="s">
         <v>85</v>
@@ -10555,22 +10572,35 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7">
         <f>SUM(F13:F38)</f>
-        <v>449634.3141001144</v>
+        <v>944290.50962104241</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7">
         <f>SUM(I13:I38)</f>
-        <v>335678.96121266932</v>
+        <v>436737.3588138193</v>
       </c>
       <c r="J40" s="57">
         <f>I40-F40</f>
-        <v>-113955.35288744507</v>
+        <v>-507553.15080722311</v>
       </c>
       <c r="K40" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -10578,19 +10608,6 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:J12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10608,139 +10625,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE94"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A42" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="69" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="61" t="s">
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -10775,7 +10792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -10800,29 +10817,28 @@
       <c r="J9" s="27"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="38"/>
       <c r="B10" s="39" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="40">
-        <f>3*4</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D10" s="10">
-        <f>(2.5+1.5+13)/3.281</f>
-        <v>5.1813471502590671</v>
+        <f>(10+(2.833-0.17-0.17-0.17))/3.281</f>
+        <v>3.755867113684852</v>
       </c>
       <c r="E10" s="10">
         <v>3.97</v>
       </c>
       <c r="F10" s="10">
         <f>PRODUCT(C10:E10)</f>
-        <v>246.83937823834196</v>
+        <v>44.73237732398659</v>
       </c>
       <c r="G10" s="36">
         <f>F10</f>
-        <v>246.83937823834196</v>
+        <v>44.73237732398659</v>
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
@@ -10830,28 +10846,26 @@
       <c r="K10" s="11"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="38"/>
-      <c r="B11" s="39" t="s">
-        <v>47</v>
-      </c>
+      <c r="B11" s="39"/>
       <c r="C11" s="40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="10">
-        <f>(4.46+4.35)</f>
-        <v>8.8099999999999987</v>
+        <f>(D10+D12)/2</f>
+        <v>4.0099055166107895</v>
       </c>
       <c r="E11" s="10">
-        <v>2.72</v>
+        <v>4.97</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" ref="F11:F21" si="0">PRODUCT(C11:E11)</f>
-        <v>71.889600000000002</v>
+        <f t="shared" ref="F11:F12" si="0">PRODUCT(C11:E11)</f>
+        <v>39.858460835111245</v>
       </c>
       <c r="G11" s="36">
-        <f t="shared" ref="G11:G21" si="1">F11</f>
-        <v>71.889600000000002</v>
+        <f t="shared" ref="G11:G12" si="1">F11</f>
+        <v>39.858460835111245</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
@@ -10859,29 +10873,26 @@
       <c r="K11" s="11"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="38"/>
-      <c r="B12" s="39" t="s">
-        <v>51</v>
-      </c>
+      <c r="B12" s="39"/>
       <c r="C12" s="40">
-        <f>2*3</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D12" s="10">
-        <f>15/3.281</f>
-        <v>4.5717768972874122</v>
+        <f>(10+(4.5-0.17-0.17-0.17))/3.281</f>
+        <v>4.2639439195367261</v>
       </c>
       <c r="E12" s="10">
-        <v>2.72</v>
+        <v>5.97</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" si="0"/>
-        <v>74.611398963730579</v>
+        <v>76.367235598902766</v>
       </c>
       <c r="G12" s="36">
         <f t="shared" si="1"/>
-        <v>74.611398963730579</v>
+        <v>76.367235598902766</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
@@ -10889,28 +10900,28 @@
       <c r="K12" s="11"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A13" s="38"/>
       <c r="B13" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="10">
-        <f>3.5/3.281</f>
-        <v>1.0667479427003961</v>
+        <f>(175+175)/12/3.281</f>
+        <v>8.8895661891699689</v>
       </c>
       <c r="E13" s="10">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="F13:F23" si="2">PRODUCT(C13:E13)</f>
+        <v>64.804937519049076</v>
       </c>
       <c r="G13" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="G13:G23" si="3">F13</f>
+        <v>64.804937519049076</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
@@ -10918,29 +10929,29 @@
       <c r="K13" s="11"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
       <c r="B14" s="39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="40">
-        <f t="shared" ref="C14:C20" si="2">2*3</f>
+        <f>2*3</f>
         <v>6</v>
       </c>
       <c r="D14" s="10">
-        <f>4/3.281</f>
-        <v>1.2191405059433098</v>
+        <f>(16.5-0.833)/3.281</f>
+        <v>4.7750685766534593</v>
       </c>
       <c r="E14" s="10">
-        <v>1.83</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F14" s="10">
-        <f t="shared" si="0"/>
-        <v>13.386162755257542</v>
+        <f t="shared" si="2"/>
+        <v>69.620499847607434</v>
       </c>
       <c r="G14" s="36">
-        <f t="shared" si="1"/>
-        <v>13.386162755257542</v>
+        <f t="shared" si="3"/>
+        <v>69.620499847607434</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -10948,27 +10959,28 @@
       <c r="K14" s="11"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
+      <c r="B15" s="39" t="s">
+        <v>48</v>
+      </c>
       <c r="C15" s="40">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10">
+        <f>3.5/3.281</f>
+        <v>1.0667479427003961</v>
+      </c>
+      <c r="E15" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="10">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="D15" s="10">
-        <f>3.583/3.281</f>
-        <v>1.0920451081987199</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1.83</v>
-      </c>
-      <c r="F15" s="10">
-        <f t="shared" si="0"/>
-        <v>11.990655288021944</v>
+        <v>0</v>
       </c>
       <c r="G15" s="36">
-        <f t="shared" si="1"/>
-        <v>11.990655288021944</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -10976,27 +10988,29 @@
       <c r="K15" s="11"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A16" s="38"/>
-      <c r="B16" s="39"/>
+      <c r="B16" s="39" t="s">
+        <v>50</v>
+      </c>
       <c r="C16" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C16:C22" si="4">2*3</f>
         <v>6</v>
       </c>
       <c r="D16" s="10">
-        <f>3.25/3.281</f>
-        <v>0.99055166107893933</v>
+        <f>4.25/3.281</f>
+        <v>1.2953367875647668</v>
       </c>
       <c r="E16" s="10">
         <v>1.83</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" si="0"/>
-        <v>10.876257238646755</v>
+        <f t="shared" si="2"/>
+        <v>14.222797927461139</v>
       </c>
       <c r="G16" s="36">
-        <f t="shared" si="1"/>
-        <v>10.876257238646755</v>
+        <f t="shared" si="3"/>
+        <v>14.222797927461139</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
@@ -11004,29 +11018,27 @@
       <c r="K16" s="11"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
-      <c r="B17" s="39" t="s">
-        <v>49</v>
-      </c>
+      <c r="B17" s="39"/>
       <c r="C17" s="40">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="D17" s="10">
+        <f>4.42/3.281</f>
+        <v>1.3471502590673574</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F17" s="10">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="D17" s="10">
-        <f>2.75/3.281</f>
-        <v>0.8381590978360256</v>
-      </c>
-      <c r="E17" s="10">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F17" s="10">
-        <f t="shared" si="0"/>
-        <v>12.220359646449253</v>
+        <v>14.791709844559586</v>
       </c>
       <c r="G17" s="36">
-        <f t="shared" si="1"/>
-        <v>12.220359646449253</v>
+        <f t="shared" si="3"/>
+        <v>14.791709844559586</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
@@ -11034,27 +11046,27 @@
       <c r="K17" s="11"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="39"/>
       <c r="C18" s="40">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="D18" s="10">
+        <f>4.833/3.281</f>
+        <v>1.4730265163060043</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F18" s="10">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="D18" s="10">
-        <f>2/3.281</f>
-        <v>0.6095702529716549</v>
-      </c>
-      <c r="E18" s="10">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F18" s="10">
-        <f t="shared" si="0"/>
-        <v>8.8875342883267283</v>
+        <v>16.17383114903993</v>
       </c>
       <c r="G18" s="36">
-        <f t="shared" si="1"/>
-        <v>8.8875342883267283</v>
+        <f t="shared" si="3"/>
+        <v>16.17383114903993</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
@@ -11062,27 +11074,29 @@
       <c r="K18" s="11"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
+      <c r="B19" s="39" t="s">
+        <v>49</v>
+      </c>
       <c r="C19" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="D19" s="10">
-        <f>1.333/3.281</f>
-        <v>0.40627857360560804</v>
+        <f>2.833/3.281</f>
+        <v>0.86345626333434933</v>
       </c>
       <c r="E19" s="10">
         <v>2.4300000000000002</v>
       </c>
       <c r="F19" s="10">
-        <f t="shared" si="0"/>
-        <v>5.9235416031697659</v>
+        <f t="shared" si="2"/>
+        <v>12.589192319414815</v>
       </c>
       <c r="G19" s="36">
-        <f t="shared" si="1"/>
-        <v>5.9235416031697659</v>
+        <f t="shared" si="3"/>
+        <v>12.589192319414815</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
@@ -11090,27 +11104,27 @@
       <c r="K19" s="11"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
       <c r="B20" s="39"/>
       <c r="C20" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="D20" s="10">
-        <f>6/12/3.281</f>
-        <v>0.15239256324291373</v>
+        <f>2/3.281</f>
+        <v>0.6095702529716549</v>
       </c>
       <c r="E20" s="10">
         <v>2.4300000000000002</v>
       </c>
       <c r="F20" s="10">
-        <f t="shared" si="0"/>
-        <v>2.2218835720816821</v>
+        <f t="shared" si="2"/>
+        <v>8.8875342883267283</v>
       </c>
       <c r="G20" s="36">
-        <f t="shared" si="1"/>
-        <v>2.2218835720816821</v>
+        <f t="shared" si="3"/>
+        <v>8.8875342883267283</v>
       </c>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
@@ -11118,28 +11132,27 @@
       <c r="K20" s="11"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
-      <c r="B21" s="39" t="s">
-        <v>60</v>
-      </c>
+      <c r="B21" s="39"/>
       <c r="C21" s="40">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="D21" s="10">
-        <f>((9.917+15)+(1.5+1.5))/3.281</f>
-        <v>8.5086863761048459</v>
+        <f>1.333/3.281</f>
+        <v>0.40627857360560804</v>
       </c>
       <c r="E21" s="10">
         <v>2.4300000000000002</v>
       </c>
       <c r="F21" s="10">
-        <f t="shared" si="0"/>
-        <v>289.46551051508686</v>
+        <f t="shared" si="2"/>
+        <v>5.9235416031697659</v>
       </c>
       <c r="G21" s="36">
-        <f t="shared" si="1"/>
-        <v>289.46551051508686</v>
+        <f t="shared" si="3"/>
+        <v>5.9235416031697659</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
@@ -11147,167 +11160,202 @@
       <c r="K21" s="11"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="39" t="s">
+    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="D22" s="10">
+        <f>6/12/3.281</f>
+        <v>0.15239256324291373</v>
+      </c>
+      <c r="E22" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="2"/>
+        <v>2.2218835720816821</v>
+      </c>
+      <c r="G22" s="36">
+        <f t="shared" si="3"/>
+        <v>2.2218835720816821</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="11"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:15" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="38"/>
+      <c r="B23" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="40">
+        <v>14</v>
+      </c>
+      <c r="D23" s="10">
+        <f>(142/12+145/12+22/12+22/12)/3.281</f>
+        <v>8.4069897389007409</v>
+      </c>
+      <c r="E23" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="2"/>
+        <v>286.0057909174032</v>
+      </c>
+      <c r="G23" s="36">
+        <f t="shared" si="3"/>
+        <v>286.0057909174032</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="11"/>
+      <c r="M23" s="12">
+        <f>(142+145)/12</f>
+        <v>23.916666666666668</v>
+      </c>
+      <c r="O23" s="1">
+        <f>(174+173)/12</f>
+        <v>28.916666666666668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="27">
-        <f>SUM(G10:G21)</f>
-        <v>748.31228210911308</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="26">
-        <v>181.17</v>
-      </c>
-      <c r="J22" s="27">
-        <f>G22*I22</f>
-        <v>135571.73614970801</v>
-      </c>
-      <c r="K22" s="24"/>
-    </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="27">
-        <f>0.13*G22*(1871.42/18.94)</f>
-        <v>9612.083116578815</v>
-      </c>
-      <c r="K23" s="24"/>
-    </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="37"/>
       <c r="C24" s="22"/>
       <c r="D24" s="23"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="27"/>
+      <c r="G24" s="27">
+        <f>SUM(G10:G23)</f>
+        <v>656.19979274611399</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="26">
+        <v>181.17</v>
+      </c>
+      <c r="J24" s="27">
+        <f>G24*I24</f>
+        <v>118883.71645181347</v>
+      </c>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="38">
+    <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="27">
+        <f>0.13*G24*(1871.42/18.94)</f>
+        <v>8428.8967316959479</v>
+      </c>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="24"/>
+      <c r="O26" s="1">
+        <f>14*12+6</f>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+      <c r="A27" s="38">
         <v>2</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B27" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="11"/>
-      <c r="M25" s="12"/>
-    </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="40">
+      <c r="C27" s="40"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="11"/>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="38"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40">
         <v>2</v>
       </c>
-      <c r="D26" s="10">
-        <f>16.17/3.281</f>
-        <v>4.928375495275831</v>
-      </c>
-      <c r="E26" s="10">
-        <f>(9.917+15+1.5)/3.281</f>
-        <v>8.0515086863761045</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="36">
-        <f>PRODUCT(C26:F26)</f>
-        <v>79.361716219872974</v>
-      </c>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="11"/>
-      <c r="M26" s="12"/>
-    </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="39" t="s">
+      <c r="D28" s="10">
+        <f>16/3.281</f>
+        <v>4.8765620237732392</v>
+      </c>
+      <c r="E28" s="10">
+        <f>(142/12+145/12+21/12+21/12)/3.281</f>
+        <v>8.3561922178197712</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="36">
+        <f>PRODUCT(C28:F28)</f>
+        <v>81.49897926553875</v>
+      </c>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="11"/>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
+      <c r="B29" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="27">
-        <f>SUM(G26:G26)</f>
-        <v>79.361716219872974</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="26">
-        <v>1070.9000000000001</v>
-      </c>
-      <c r="J27" s="27">
-        <f>G27*I27</f>
-        <v>84988.46189986197</v>
-      </c>
-      <c r="K27" s="24"/>
-    </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="27">
-        <f>0.13*G27*8587.63/10</f>
-        <v>8859.8777157964814</v>
-      </c>
-      <c r="K28" s="24"/>
-    </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="39"/>
       <c r="C29" s="22"/>
       <c r="D29" s="23"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="27"/>
+      <c r="G29" s="27">
+        <f>SUM(G28:G28)</f>
+        <v>81.49897926553875</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="26">
+        <v>1070.9000000000001</v>
+      </c>
+      <c r="J29" s="27">
+        <f>G29*I29</f>
+        <v>87277.256895465456</v>
+      </c>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="21">
-        <v>3</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>40</v>
+    <row r="30" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="23"/>
@@ -11316,197 +11364,192 @@
       <c r="G30" s="27"/>
       <c r="H30" s="25"/>
       <c r="I30" s="26"/>
-      <c r="J30" s="27"/>
+      <c r="J30" s="27">
+        <f>0.13*G29*8587.63/10</f>
+        <v>9098.4800310315404</v>
+      </c>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
-      <c r="B31" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="22">
-        <f>3*2+2</f>
-        <v>8</v>
-      </c>
-      <c r="D31" s="23">
-        <v>0.45</v>
-      </c>
-      <c r="E31" s="24">
-        <v>0.45</v>
-      </c>
-      <c r="F31" s="24">
-        <f>(2.5+0.25+0.17)/3.281</f>
-        <v>0.88997256933861624</v>
-      </c>
-      <c r="G31" s="36">
-        <f>PRODUCT(C31:F31)</f>
-        <v>1.4417555623285585</v>
-      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="27"/>
       <c r="H31" s="25"/>
       <c r="I31" s="26"/>
       <c r="J31" s="27"/>
       <c r="K31" s="24"/>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="39" t="s">
-        <v>26</v>
+    <row r="32" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A32" s="21">
+        <v>3</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="C32" s="22"/>
       <c r="D32" s="23"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
-      <c r="G32" s="27">
-        <f>SUM(G31:G31)</f>
-        <v>1.4417555623285585</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="I32" s="26">
-        <v>663.31</v>
-      </c>
-      <c r="J32" s="27">
-        <f>G32*I32</f>
-        <v>956.33088204815601</v>
-      </c>
+      <c r="G32" s="27"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="27"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="27"/>
+      <c r="B33" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="22">
+        <f>3*2+2</f>
+        <v>8</v>
+      </c>
+      <c r="D33" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="E33" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="F33" s="24">
+        <f>0.75</f>
+        <v>0.75</v>
+      </c>
+      <c r="G33" s="36">
+        <f>PRODUCT(C33:F33)</f>
+        <v>1.2150000000000001</v>
+      </c>
       <c r="H33" s="25"/>
       <c r="I33" s="26"/>
       <c r="J33" s="27"/>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21">
-        <v>4</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="27"/>
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="22">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="D34" s="23">
+        <f>(9.917+15)/3.281</f>
+        <v>7.594330996647364</v>
+      </c>
+      <c r="E34" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="F34" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="G34" s="36">
+        <f t="shared" ref="G34:G36" si="5">PRODUCT(C34:F34)</f>
+        <v>2.0504693690947882</v>
+      </c>
       <c r="H34" s="25"/>
       <c r="I34" s="26"/>
       <c r="J34" s="27"/>
       <c r="K34" s="24"/>
     </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
-      <c r="B35" s="39" t="str">
-        <f>B31</f>
-        <v>-for footing</v>
-      </c>
+      <c r="B35" s="39"/>
       <c r="C35" s="22">
-        <v>1</v>
+        <f>2</f>
+        <v>2</v>
       </c>
       <c r="D35" s="23">
-        <f>(29.11*2-0.23-0.23+(9.917+15)*2)/3.281</f>
-        <v>32.793050899116125</v>
+        <f>(29.917-1.5)/3.281</f>
+        <v>8.6610789393477603</v>
       </c>
       <c r="E35" s="24">
-        <v>0.23</v>
-      </c>
-      <c r="F35" s="24"/>
+        <v>0.3</v>
+      </c>
+      <c r="F35" s="24">
+        <v>0.45</v>
+      </c>
       <c r="G35" s="36">
-        <f>PRODUCT(C35:F35)</f>
-        <v>7.5424017067967091</v>
+        <f t="shared" si="5"/>
+        <v>2.3384913136238952</v>
       </c>
       <c r="H35" s="25"/>
       <c r="I35" s="26"/>
       <c r="J35" s="27"/>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21"/>
       <c r="B36" s="39" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C36" s="22">
-        <f>0*2*2</f>
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D36" s="23">
-        <f>11.17/3.281</f>
-        <v>3.4044498628466928</v>
+        <v>0.45</v>
       </c>
       <c r="E36" s="24">
-        <v>0.23</v>
-      </c>
-      <c r="F36" s="24"/>
+        <v>0.45</v>
+      </c>
+      <c r="F36" s="24">
+        <v>0.45</v>
+      </c>
       <c r="G36" s="36">
-        <f>PRODUCT(C36:F36)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>-0.72900000000000009</v>
       </c>
       <c r="H36" s="25"/>
       <c r="I36" s="26"/>
       <c r="J36" s="27"/>
       <c r="K36" s="24"/>
     </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="22">
-        <f>0*2*3</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="23">
-        <f>11.75/3.281</f>
-        <v>3.5812252362084727</v>
-      </c>
-      <c r="E37" s="24">
-        <v>0.23</v>
-      </c>
+      <c r="B37" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="24"/>
-      <c r="G37" s="36">
-        <f>PRODUCT(C37:F37)</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="27"/>
+      <c r="G37" s="27">
+        <f>SUM(G33:G36)</f>
+        <v>4.8749606827186831</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" s="26">
+        <v>663.31</v>
+      </c>
+      <c r="J37" s="27">
+        <f>G37*I37</f>
+        <v>3233.6101704541293</v>
+      </c>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21"/>
-      <c r="B38" s="39" t="s">
-        <v>26</v>
-      </c>
+      <c r="B38" s="39"/>
       <c r="C38" s="22"/>
       <c r="D38" s="23"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
-      <c r="G38" s="27">
-        <f>SUM(G35:G37)</f>
-        <v>7.5424017067967091</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I38" s="26">
-        <v>1014.97</v>
-      </c>
-      <c r="J38" s="27">
-        <f>G38*I38</f>
-        <v>7655.311460347456</v>
-      </c>
+      <c r="G38" s="27"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="27"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="39" t="s">
-        <v>39</v>
+    <row r="39" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A39" s="21">
+        <v>4</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>54</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="23"/>
@@ -11515,156 +11558,152 @@
       <c r="G39" s="27"/>
       <c r="H39" s="25"/>
       <c r="I39" s="26"/>
-      <c r="J39" s="27">
-        <f>0.13*G38*8617.2/10</f>
-        <v>844.92699184151184</v>
-      </c>
+      <c r="J39" s="27"/>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="24"/>
+      <c r="B40" s="39" t="str">
+        <f>B33</f>
+        <v>-for footing</v>
+      </c>
+      <c r="C40" s="22">
+        <v>1</v>
+      </c>
+      <c r="D40" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="E40" s="24">
+        <v>0.45</v>
+      </c>
       <c r="F40" s="24"/>
-      <c r="G40" s="27"/>
+      <c r="G40" s="36">
+        <f>PRODUCT(C40:F40)</f>
+        <v>0.20250000000000001</v>
+      </c>
       <c r="H40" s="25"/>
       <c r="I40" s="26"/>
       <c r="J40" s="27"/>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="21">
-        <v>5</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="24"/>
+    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="21"/>
+      <c r="B41" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="22">
+        <v>1</v>
+      </c>
+      <c r="D41" s="23">
+        <f>(29.917-1.5)/3.281</f>
+        <v>8.6610789393477603</v>
+      </c>
+      <c r="E41" s="24">
+        <v>0.23</v>
+      </c>
       <c r="F41" s="24"/>
-      <c r="G41" s="27"/>
+      <c r="G41" s="36">
+        <f>PRODUCT(C41:F41)</f>
+        <v>1.992048156049985</v>
+      </c>
       <c r="H41" s="25"/>
       <c r="I41" s="26"/>
       <c r="J41" s="27"/>
       <c r="K41" s="24"/>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21"/>
-      <c r="B42" s="39" t="str">
-        <f>B31</f>
-        <v>-for footing</v>
-      </c>
+      <c r="B42" s="39"/>
       <c r="C42" s="22">
-        <f>C35</f>
         <v>1</v>
       </c>
       <c r="D42" s="23">
-        <f>D35</f>
-        <v>32.793050899116125</v>
+        <f>(9.917+15)/3.281</f>
+        <v>7.594330996647364</v>
       </c>
       <c r="E42" s="24">
-        <f>E35</f>
         <v>0.23</v>
       </c>
-      <c r="F42" s="24">
-        <v>7.4999999999999997E-2</v>
-      </c>
+      <c r="F42" s="24"/>
       <c r="G42" s="36">
         <f>PRODUCT(C42:F42)</f>
-        <v>0.5656801280097532</v>
+        <v>1.7466961292288938</v>
       </c>
       <c r="H42" s="25"/>
       <c r="I42" s="26"/>
       <c r="J42" s="27"/>
       <c r="K42" s="24"/>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21"/>
       <c r="B43" s="39" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C43" s="22">
-        <f>0*2*2</f>
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D43" s="23">
-        <f>11.17/3.281</f>
-        <v>3.4044498628466928</v>
+        <v>0.45</v>
       </c>
       <c r="E43" s="24">
         <v>0.23</v>
       </c>
-      <c r="F43" s="24">
-        <v>0.05</v>
-      </c>
+      <c r="F43" s="24"/>
       <c r="G43" s="36">
-        <f>PRODUCT(C43:F43)</f>
-        <v>0</v>
+        <f t="shared" ref="G43" si="6">PRODUCT(C43:F43)</f>
+        <v>-0.82800000000000007</v>
       </c>
       <c r="H43" s="25"/>
       <c r="I43" s="26"/>
       <c r="J43" s="27"/>
       <c r="K43" s="24"/>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="21"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="22">
-        <f>0*2*3</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="23">
-        <f>11.75/3.281</f>
-        <v>3.5812252362084727</v>
-      </c>
-      <c r="E44" s="24">
-        <v>0.23</v>
-      </c>
-      <c r="F44" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="G44" s="36">
-        <f>PRODUCT(C44:F44)</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="25"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="27"/>
+      <c r="B44" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="22"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="27">
+        <f>SUM(G40:G43)</f>
+        <v>3.1132442852788786</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" s="26">
+        <v>1014.97</v>
+      </c>
+      <c r="J44" s="27">
+        <f>G44*I44</f>
+        <v>3159.8495522295034</v>
+      </c>
       <c r="K44" s="24"/>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
       <c r="B45" s="39" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="23"/>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
-      <c r="G45" s="27">
-        <f>SUM(G42:G44)</f>
-        <v>0.5656801280097532</v>
-      </c>
-      <c r="H45" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="I45" s="26">
-        <v>12983.1</v>
-      </c>
+      <c r="G45" s="27"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="26"/>
       <c r="J45" s="27">
-        <f>G45*I45</f>
-        <v>7344.2816699634268</v>
+        <f>0.13*G44*8617.2/10</f>
+        <v>348.75683251636701</v>
       </c>
       <c r="K45" s="24"/>
     </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21"/>
-      <c r="B46" s="39" t="s">
-        <v>39</v>
-      </c>
+      <c r="B46" s="39"/>
       <c r="C46" s="22"/>
       <c r="D46" s="23"/>
       <c r="E46" s="24"/>
@@ -11672,15 +11711,16 @@
       <c r="G46" s="27"/>
       <c r="H46" s="25"/>
       <c r="I46" s="26"/>
-      <c r="J46" s="27">
-        <f>0.13*G45*8078.11</f>
-        <v>594.0514188539928</v>
-      </c>
+      <c r="J46" s="27"/>
       <c r="K46" s="24"/>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
-      <c r="B47" s="39"/>
+    <row r="47" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A47" s="21">
+        <v>5</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>44</v>
+      </c>
       <c r="C47" s="22"/>
       <c r="D47" s="23"/>
       <c r="E47" s="24"/>
@@ -11691,422 +11731,414 @@
       <c r="J47" s="27"/>
       <c r="K47" s="24"/>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="21">
-        <v>6</v>
-      </c>
-      <c r="B48" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F48" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="G48" s="42" t="s">
-        <v>67</v>
+    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="21"/>
+      <c r="B48" s="39" t="str">
+        <f>B33</f>
+        <v>-for footing</v>
+      </c>
+      <c r="C48" s="22">
+        <f>C40</f>
+        <v>1</v>
+      </c>
+      <c r="D48" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="E48" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="F48" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="G48" s="36">
+        <f>PRODUCT(C48:F48)</f>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="26"/>
       <c r="J48" s="27"/>
       <c r="K48" s="24"/>
     </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="21"/>
-      <c r="B49" s="39" t="str">
-        <f>B43</f>
-        <v>-for tie beam</v>
-      </c>
-      <c r="C49" s="22">
-        <v>4</v>
-      </c>
-      <c r="D49" s="34">
-        <f>(40-0.333+0.583*2)</f>
-        <v>40.832999999999998</v>
-      </c>
-      <c r="E49" s="35">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F49" s="35">
-        <f>PRODUCT(C49:E49)</f>
-        <v>145.184</v>
-      </c>
-      <c r="G49" s="43">
-        <f>F49/1000</f>
-        <v>0.14518400000000001</v>
-      </c>
-      <c r="H49" s="25"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="27"/>
+      <c r="B49" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="22"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="27">
+        <f>SUM(G48:G48)</f>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="H49" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" s="26">
+        <v>12983.1</v>
+      </c>
+      <c r="J49" s="27">
+        <f>G49*I49</f>
+        <v>58.423949999999998</v>
+      </c>
       <c r="K49" s="24"/>
     </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="21"/>
       <c r="B50" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="22">
-        <f>2*(TRUNC((11.917+12.25+11.917-0.17*6)/0.5,0))+3</f>
-        <v>143</v>
-      </c>
-      <c r="D50" s="34">
-        <f>(0.583*4+0.17*2)/3.281</f>
-        <v>0.81438585797013097</v>
-      </c>
-      <c r="E50" s="35">
-        <f>8*8/162</f>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F50" s="35">
-        <f>PRODUCT(C50:E50)</f>
-        <v>46.007773902115048</v>
-      </c>
-      <c r="G50" s="43">
-        <f>F50/1000</f>
-        <v>4.6007773902115051E-2</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C50" s="22"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="27"/>
       <c r="H50" s="25"/>
       <c r="I50" s="26"/>
-      <c r="J50" s="27"/>
+      <c r="J50" s="27">
+        <f>0.13*G49*8078.11</f>
+        <v>4.7256943500000004</v>
+      </c>
       <c r="K50" s="24"/>
     </row>
-    <row r="51" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="21"/>
-      <c r="B51" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="22">
-        <v>4</v>
-      </c>
-      <c r="D51" s="34">
-        <f>(30-0.333+0.583*2)</f>
-        <v>30.833000000000002</v>
-      </c>
-      <c r="E51" s="35">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F51" s="35">
-        <f>PRODUCT(C51:E51)</f>
-        <v>109.62844444444444</v>
-      </c>
-      <c r="G51" s="43">
-        <f>F51/1000</f>
-        <v>0.10962844444444445</v>
-      </c>
+      <c r="B51" s="39"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="27"/>
       <c r="H51" s="25"/>
       <c r="I51" s="26"/>
       <c r="J51" s="27"/>
       <c r="K51" s="24"/>
     </row>
-    <row r="52" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
-      <c r="B52" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="22">
-        <f>4*(TRUNC((12.5-0.17*4)/0.5,0))+3</f>
-        <v>95</v>
-      </c>
-      <c r="D52" s="34">
-        <f>(0.583*4+0.17*2)/3.281</f>
-        <v>0.81438585797013097</v>
-      </c>
-      <c r="E52" s="35">
-        <f>8*8/162</f>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F52" s="35">
-        <f>PRODUCT(C52:E52)</f>
-        <v>30.564605039866645</v>
-      </c>
-      <c r="G52" s="43">
-        <f>F52/1000</f>
-        <v>3.0564605039866646E-2</v>
+    <row r="52" spans="1:11" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="21">
+        <v>6</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G52" s="42" t="s">
+        <v>67</v>
       </c>
       <c r="H52" s="25"/>
       <c r="I52" s="26"/>
       <c r="J52" s="27"/>
       <c r="K52" s="24"/>
     </row>
-    <row r="53" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="21"/>
       <c r="B53" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="27">
-        <f>0*SUM(G49:G52)</f>
-        <v>0</v>
-      </c>
-      <c r="H53" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="I53" s="26">
-        <v>131940</v>
-      </c>
-      <c r="J53" s="27">
-        <f>G53*I53</f>
-        <v>0</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C53" s="22">
+        <v>2</v>
+      </c>
+      <c r="D53" s="34">
+        <f>(142+145)/12/3.281</f>
+        <v>7.289444275119374</v>
+      </c>
+      <c r="E53" s="35">
+        <f>10*10/162</f>
+        <v>0.61728395061728392</v>
+      </c>
+      <c r="F53" s="35">
+        <f>PRODUCT(C53:E53)</f>
+        <v>8.9993139199004606</v>
+      </c>
+      <c r="G53" s="43">
+        <f>F53/1000</f>
+        <v>8.9993139199004597E-3</v>
+      </c>
+      <c r="H53" s="25"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="27"/>
       <c r="K53" s="24"/>
     </row>
-    <row r="54" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="21"/>
       <c r="B54" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="27"/>
+        <v>69</v>
+      </c>
+      <c r="C54" s="22">
+        <f>((TRUNC((D53-0.15-0.15-0.15)/0.15,0))+1)</f>
+        <v>46</v>
+      </c>
+      <c r="D54" s="34">
+        <f>(0.583+0.17)/3.281</f>
+        <v>0.22950320024382809</v>
+      </c>
+      <c r="E54" s="35">
+        <f>8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F54" s="35">
+        <f>PRODUCT(C54:E54)</f>
+        <v>4.170724824184135</v>
+      </c>
+      <c r="G54" s="43">
+        <f>F54/1000</f>
+        <v>4.1707248241841348E-3</v>
+      </c>
       <c r="H54" s="25"/>
       <c r="I54" s="26"/>
-      <c r="J54" s="27">
-        <f>0.13*G53*106200</f>
-        <v>0</v>
-      </c>
+      <c r="J54" s="27"/>
       <c r="K54" s="24"/>
     </row>
-    <row r="55" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="21"/>
       <c r="B55" s="39"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="27"/>
+      <c r="C55" s="22">
+        <v>2</v>
+      </c>
+      <c r="D55" s="34">
+        <f>(174+173)/12/3.281</f>
+        <v>8.8133699075485108</v>
+      </c>
+      <c r="E55" s="35">
+        <f>10*10/162</f>
+        <v>0.61728395061728392</v>
+      </c>
+      <c r="F55" s="35">
+        <f>PRODUCT(C55:E55)</f>
+        <v>10.880703589566062</v>
+      </c>
+      <c r="G55" s="43">
+        <f>F55/1000</f>
+        <v>1.0880703589566063E-2</v>
+      </c>
       <c r="H55" s="25"/>
       <c r="I55" s="26"/>
       <c r="J55" s="27"/>
       <c r="K55" s="24"/>
     </row>
-    <row r="56" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="21">
-        <v>6</v>
-      </c>
-      <c r="B56" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="27"/>
+    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="21"/>
+      <c r="B56" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="22">
+        <f>((TRUNC((D55-0.15-0.15-0.15)/0.15,0))+1)</f>
+        <v>56</v>
+      </c>
+      <c r="D56" s="34">
+        <f>(0.583+0.17)/3.281</f>
+        <v>0.22950320024382809</v>
+      </c>
+      <c r="E56" s="35">
+        <f>8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F56" s="35">
+        <f>PRODUCT(C56:E56)</f>
+        <v>5.0774041337893818</v>
+      </c>
+      <c r="G56" s="43">
+        <f>F56/1000</f>
+        <v>5.0774041337893821E-3</v>
+      </c>
       <c r="H56" s="25"/>
       <c r="I56" s="26"/>
       <c r="J56" s="27"/>
       <c r="K56" s="24"/>
     </row>
-    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="21"/>
-      <c r="B57" s="39" t="str">
-        <f>B31</f>
-        <v>-for footing</v>
-      </c>
-      <c r="C57" s="22">
-        <v>1</v>
-      </c>
-      <c r="D57" s="23">
-        <f>0.3*4</f>
-        <v>1.2</v>
-      </c>
+      <c r="B57" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="22"/>
+      <c r="D57" s="23"/>
       <c r="E57" s="24"/>
-      <c r="F57" s="24">
-        <v>1.2</v>
-      </c>
-      <c r="G57" s="36">
-        <f t="shared" ref="G57:G62" si="3">PRODUCT(C57:F57)</f>
-        <v>1.44</v>
-      </c>
-      <c r="H57" s="25"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="27"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="27">
+        <f>SUM(G53:G56)</f>
+        <v>2.9128146467440039E-2</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I57" s="26">
+        <v>131940</v>
+      </c>
+      <c r="J57" s="27">
+        <f>G57*I57</f>
+        <v>3843.1676449140386</v>
+      </c>
       <c r="K57" s="24"/>
     </row>
-    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="21"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="22">
-        <v>1</v>
-      </c>
-      <c r="D58" s="23">
-        <f>0.3*4</f>
-        <v>1.2</v>
-      </c>
+      <c r="B58" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="22"/>
+      <c r="D58" s="23"/>
       <c r="E58" s="24"/>
-      <c r="F58" s="24">
-        <v>0.9</v>
-      </c>
-      <c r="G58" s="36">
-        <f t="shared" si="3"/>
-        <v>1.08</v>
-      </c>
+      <c r="F58" s="24"/>
+      <c r="G58" s="27"/>
       <c r="H58" s="25"/>
       <c r="I58" s="26"/>
-      <c r="J58" s="27"/>
+      <c r="J58" s="27">
+        <f>0.13*G57*106200</f>
+        <v>402.1431901294772</v>
+      </c>
       <c r="K58" s="24"/>
     </row>
-    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="21"/>
-      <c r="B59" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="22">
-        <v>1</v>
-      </c>
-      <c r="D59" s="23">
-        <f>4*0.3</f>
-        <v>1.2</v>
-      </c>
+      <c r="B59" s="39"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="23"/>
       <c r="E59" s="24"/>
-      <c r="F59" s="24">
-        <v>0.3</v>
-      </c>
-      <c r="G59" s="36">
-        <f t="shared" si="3"/>
-        <v>0.36</v>
-      </c>
+      <c r="F59" s="24"/>
+      <c r="G59" s="27"/>
       <c r="H59" s="25"/>
       <c r="I59" s="26"/>
       <c r="J59" s="27"/>
       <c r="K59" s="24"/>
     </row>
-    <row r="60" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
-      <c r="B60" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="22">
-        <f>0*2*2</f>
-        <v>0</v>
-      </c>
-      <c r="D60" s="23">
-        <f>12.5/3.281</f>
-        <v>3.8098140810728434</v>
-      </c>
+    <row r="60" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A60" s="21">
+        <v>6</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="22"/>
+      <c r="D60" s="23"/>
       <c r="E60" s="24"/>
-      <c r="F60" s="24">
-        <f>0.23*2</f>
-        <v>0.46</v>
-      </c>
-      <c r="G60" s="36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="F60" s="24"/>
+      <c r="G60" s="27"/>
       <c r="H60" s="25"/>
       <c r="I60" s="26"/>
       <c r="J60" s="27"/>
       <c r="K60" s="24"/>
     </row>
-    <row r="61" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="21"/>
-      <c r="B61" s="39"/>
+      <c r="B61" s="39" t="s">
+        <v>68</v>
+      </c>
       <c r="C61" s="22">
-        <f>0*2*2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D61" s="23">
-        <f>11.917/3.281</f>
-        <v>3.6321243523316058</v>
+        <f>0.23*4</f>
+        <v>0.92</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="24">
-        <f>0.23*2</f>
-        <v>0.46</v>
+        <f>((54-6+34-6)/2)/12/3.281-0.07</f>
+        <v>0.89515290053845353</v>
       </c>
       <c r="G61" s="36">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="G61:G63" si="7">PRODUCT(C61:F61)</f>
+        <v>1.6470813369907547</v>
       </c>
       <c r="H61" s="25"/>
       <c r="I61" s="26"/>
       <c r="J61" s="27"/>
       <c r="K61" s="24"/>
     </row>
-    <row r="62" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="21"/>
-      <c r="B62" s="39"/>
+      <c r="B62" s="39" t="s">
+        <v>63</v>
+      </c>
       <c r="C62" s="22">
-        <f>0*1*2</f>
-        <v>0</v>
+        <f>2</f>
+        <v>2</v>
       </c>
       <c r="D62" s="23">
-        <f>12.25/3.281</f>
-        <v>3.7336177994513866</v>
+        <f>(29.917/3.281)</f>
+        <v>9.1182566290765017</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="24">
-        <f>0.23*2</f>
-        <v>0.46</v>
+        <f>0.15*2</f>
+        <v>0.3</v>
       </c>
       <c r="G62" s="36">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>5.4709539774459008</v>
       </c>
       <c r="H62" s="25"/>
       <c r="I62" s="26"/>
       <c r="J62" s="27"/>
       <c r="K62" s="24"/>
     </row>
-    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="21"/>
-      <c r="B63" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63" s="22"/>
-      <c r="D63" s="23"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="22">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="D63" s="23">
+        <f>(9.917+15-0.75-0.75)/3.281</f>
+        <v>7.1371533069186226</v>
+      </c>
       <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="27">
-        <f>SUM(G57:G62)</f>
-        <v>2.88</v>
-      </c>
-      <c r="H63" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I63" s="26">
-        <v>915.42</v>
-      </c>
-      <c r="J63" s="27">
-        <f>G63*I63</f>
-        <v>2636.4096</v>
-      </c>
+      <c r="F63" s="24">
+        <f>0.15*2</f>
+        <v>0.3</v>
+      </c>
+      <c r="G63" s="36">
+        <f t="shared" si="7"/>
+        <v>4.2822919841511737</v>
+      </c>
+      <c r="H63" s="25"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="27"/>
       <c r="K63" s="24"/>
     </row>
-    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="21"/>
       <c r="B64" s="39" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C64" s="22"/>
       <c r="D64" s="23"/>
       <c r="E64" s="24"/>
       <c r="F64" s="24"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="26"/>
+      <c r="G64" s="27">
+        <f>SUM(G61:G63)</f>
+        <v>11.400327298587829</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I64" s="26">
+        <v>915.42</v>
+      </c>
       <c r="J64" s="27">
-        <f>0.13*G63*46827.87/100</f>
-        <v>175.32354527999999</v>
+        <f>G64*I64</f>
+        <v>10436.08761567327</v>
       </c>
       <c r="K64" s="24"/>
     </row>
-    <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="21"/>
-      <c r="B65" s="39"/>
+      <c r="B65" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="C65" s="22"/>
       <c r="D65" s="23"/>
       <c r="E65" s="24"/>
@@ -12114,16 +12146,15 @@
       <c r="G65" s="27"/>
       <c r="H65" s="25"/>
       <c r="I65" s="26"/>
-      <c r="J65" s="27"/>
+      <c r="J65" s="27">
+        <f>0.13*G64*46827.87/100</f>
+        <v>694.00895810443865</v>
+      </c>
       <c r="K65" s="24"/>
     </row>
-    <row r="66" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="21">
-        <v>7</v>
-      </c>
-      <c r="B66" s="37" t="s">
-        <v>45</v>
-      </c>
+    <row r="66" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="21"/>
+      <c r="B66" s="39"/>
       <c r="C66" s="22"/>
       <c r="D66" s="23"/>
       <c r="E66" s="24"/>
@@ -12134,198 +12165,177 @@
       <c r="J66" s="27"/>
       <c r="K66" s="24"/>
     </row>
-    <row r="67" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
-      <c r="B67" s="39" t="str">
-        <f>B31</f>
-        <v>-for footing</v>
-      </c>
-      <c r="C67" s="22">
-        <f>C42</f>
-        <v>1</v>
-      </c>
-      <c r="D67" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="E67" s="24">
-        <v>0.3</v>
-      </c>
-      <c r="F67" s="24">
-        <v>1.2</v>
-      </c>
-      <c r="G67" s="36">
-        <f t="shared" ref="G67:G72" si="4">PRODUCT(C67:F67)</f>
-        <v>0.108</v>
-      </c>
+    <row r="67" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A67" s="21">
+        <v>7</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="22"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="27"/>
       <c r="H67" s="25"/>
       <c r="I67" s="26"/>
       <c r="J67" s="27"/>
       <c r="K67" s="24"/>
     </row>
-    <row r="68" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="21"/>
-      <c r="B68" s="39"/>
+      <c r="B68" s="39" t="str">
+        <f>B61</f>
+        <v>-for column</v>
+      </c>
       <c r="C68" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" s="23">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="E68" s="24">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="F68" s="24">
-        <v>0.9</v>
+        <f>((2.5+50/12)/2)/3.281-0.12</f>
+        <v>0.89595042161942506</v>
       </c>
       <c r="G68" s="36">
-        <f t="shared" si="4"/>
-        <v>8.1000000000000003E-2</v>
+        <f t="shared" ref="G68:G71" si="8">PRODUCT(C68:F68)</f>
+        <v>9.4791554607335182E-2</v>
       </c>
       <c r="H68" s="25"/>
       <c r="I68" s="26"/>
       <c r="J68" s="27"/>
       <c r="K68" s="24"/>
     </row>
-    <row r="69" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="21"/>
-      <c r="B69" s="39" t="str">
-        <f>B59</f>
-        <v>-for column</v>
+      <c r="B69" s="39" t="s">
+        <v>61</v>
       </c>
       <c r="C69" s="22">
-        <f>C67</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" s="23">
-        <v>0.3</v>
+        <f>(29.917-0.75-0.75)/3.281</f>
+        <v>8.6610789393477603</v>
       </c>
       <c r="E69" s="24">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="F69" s="24">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="G69" s="36">
-        <f t="shared" si="4"/>
-        <v>2.7E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.59761444681499543</v>
       </c>
       <c r="H69" s="25"/>
       <c r="I69" s="26"/>
       <c r="J69" s="27"/>
       <c r="K69" s="24"/>
     </row>
-    <row r="70" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="21"/>
-      <c r="B70" s="39" t="s">
-        <v>61</v>
-      </c>
+      <c r="B70" s="39"/>
       <c r="C70" s="22">
-        <f>0*2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D70" s="23">
-        <f>40/3.281</f>
-        <v>12.1914050594331</v>
+        <f>(9.917+15)/3.281</f>
+        <v>7.594330996647364</v>
       </c>
       <c r="E70" s="24">
         <v>0.23</v>
       </c>
       <c r="F70" s="24">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="G70" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.52400883876866811</v>
       </c>
       <c r="H70" s="25"/>
       <c r="I70" s="26"/>
       <c r="J70" s="27"/>
       <c r="K70" s="24"/>
     </row>
-    <row r="71" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="21"/>
-      <c r="B71" s="39"/>
+      <c r="B71" s="39" t="s">
+        <v>89</v>
+      </c>
       <c r="C71" s="22">
-        <f>0*2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" s="23">
-        <f>30/3.281</f>
-        <v>9.1435537945748244</v>
+        <f>29.917/3.281</f>
+        <v>9.1182566290765017</v>
       </c>
       <c r="E71" s="24">
-        <v>0.23</v>
+        <f>(9.917+15)/3.281</f>
+        <v>7.594330996647364</v>
       </c>
       <c r="F71" s="24">
-        <v>0.23</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="G71" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>5.1935294215185737</v>
       </c>
       <c r="H71" s="25"/>
       <c r="I71" s="26"/>
       <c r="J71" s="27"/>
       <c r="K71" s="24"/>
     </row>
-    <row r="72" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="21"/>
       <c r="B72" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C72" s="22">
-        <f>-C67*0</f>
-        <v>0</v>
-      </c>
-      <c r="D72" s="23">
-        <f>3/12/3.281</f>
-        <v>7.6196281621456863E-2</v>
-      </c>
-      <c r="E72" s="24">
-        <v>0.23</v>
-      </c>
-      <c r="F72" s="24">
-        <v>0.23</v>
-      </c>
-      <c r="G72" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H72" s="25"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="27"/>
+        <v>26</v>
+      </c>
+      <c r="C72" s="22"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="27">
+        <f>SUM(G68:G71)</f>
+        <v>6.4099442617095725</v>
+      </c>
+      <c r="H72" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I72" s="26">
+        <v>13568.9</v>
+      </c>
+      <c r="J72" s="27">
+        <f>G72*I72</f>
+        <v>86975.892692711015</v>
+      </c>
       <c r="K72" s="24"/>
     </row>
-    <row r="73" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="21"/>
       <c r="B73" s="39" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C73" s="22"/>
       <c r="D73" s="23"/>
       <c r="E73" s="24"/>
       <c r="F73" s="24"/>
-      <c r="G73" s="27">
-        <f>SUM(G67:G72)</f>
-        <v>0.216</v>
-      </c>
-      <c r="H73" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="I73" s="26">
-        <v>13568.9</v>
-      </c>
+      <c r="G73" s="27"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="26"/>
       <c r="J73" s="27">
-        <f>G73*I73</f>
-        <v>2930.8824</v>
+        <f>0.13*G72*9524.2</f>
+        <v>7936.4468478586614</v>
       </c>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21"/>
-      <c r="B74" s="39" t="s">
-        <v>39</v>
-      </c>
+      <c r="B74" s="39"/>
       <c r="C74" s="22"/>
       <c r="D74" s="23"/>
       <c r="E74" s="24"/>
@@ -12333,15 +12343,16 @@
       <c r="G74" s="27"/>
       <c r="H74" s="25"/>
       <c r="I74" s="26"/>
-      <c r="J74" s="27">
-        <f>0.13*G73*9524.2</f>
-        <v>267.43953600000003</v>
-      </c>
+      <c r="J74" s="27"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
-      <c r="B75" s="39"/>
+    <row r="75" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A75" s="21">
+        <v>8</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>53</v>
+      </c>
       <c r="C75" s="22"/>
       <c r="D75" s="23"/>
       <c r="E75" s="24"/>
@@ -12352,104 +12363,114 @@
       <c r="J75" s="27"/>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="21">
-        <v>8</v>
-      </c>
-      <c r="B76" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C76" s="22"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="27"/>
+    <row r="76" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="21"/>
+      <c r="B76" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" s="22">
+        <v>6</v>
+      </c>
+      <c r="D76" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="E76" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="F76" s="24">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G76" s="36">
+        <f>PRODUCT(C76:F76)</f>
+        <v>9.1124999999999998E-2</v>
+      </c>
       <c r="H76" s="25"/>
       <c r="I76" s="26"/>
       <c r="J76" s="27"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="21"/>
       <c r="B77" s="39" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C77" s="22">
-        <f>2*2</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" s="23">
-        <f>12.5/3.281</f>
-        <v>3.8098140810728434</v>
+        <f>(29.917-0.75-0.75-0.75)/3.281</f>
+        <v>8.4324900944833896</v>
       </c>
       <c r="E77" s="24">
         <v>0.23</v>
       </c>
       <c r="F77" s="24">
-        <v>0.5</v>
+        <f>(47-2)/12/3.281-(45-36)/12/3.281</f>
+        <v>0.91435537945748246</v>
       </c>
       <c r="G77" s="36">
         <f>PRODUCT(C77:F77)</f>
-        <v>1.752514477293508</v>
+        <v>3.5467346328518983</v>
       </c>
       <c r="H77" s="25"/>
       <c r="I77" s="26"/>
       <c r="J77" s="27"/>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="21"/>
       <c r="B78" s="39"/>
       <c r="C78" s="22">
-        <f>2*2</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" s="23">
-        <f>11.917/3.281</f>
-        <v>3.6321243523316058</v>
+        <f>(9.917+15-0.75)/3.281</f>
+        <v>7.3657421517829933</v>
       </c>
       <c r="E78" s="24">
         <v>0.23</v>
       </c>
       <c r="F78" s="24">
-        <v>0.5</v>
+        <f>(2.833-0.17)/3.281</f>
+        <v>0.81164279183175869</v>
       </c>
       <c r="G78" s="36">
         <f>PRODUCT(C78:F78)</f>
-        <v>1.6707772020725387</v>
+        <v>2.7500417010335667</v>
       </c>
       <c r="H78" s="25"/>
       <c r="I78" s="26"/>
       <c r="J78" s="27"/>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="21"/>
-      <c r="B79" s="39"/>
+      <c r="B79" s="39" t="s">
+        <v>91</v>
+      </c>
       <c r="C79" s="22">
-        <f>1*2</f>
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="D79" s="23">
-        <f>12.25/3.281</f>
-        <v>3.7336177994513866</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E79" s="24">
-        <v>0.23</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F79" s="24">
-        <v>0.5</v>
+        <f>(F77+F78)/2</f>
+        <v>0.86299908564462058</v>
       </c>
       <c r="G79" s="36">
         <f>PRODUCT(C79:F79)</f>
-        <v>0.85873209387381899</v>
+        <v>-3.8834958854007923E-2</v>
       </c>
       <c r="H79" s="25"/>
       <c r="I79" s="26"/>
       <c r="J79" s="27"/>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="21"/>
       <c r="B80" s="39" t="s">
         <v>26</v>
@@ -12459,8 +12480,8 @@
       <c r="E80" s="24"/>
       <c r="F80" s="24"/>
       <c r="G80" s="27">
-        <f>SUM(G77:G79)</f>
-        <v>4.2820237732398656</v>
+        <f>SUM(G76:G79)</f>
+        <v>6.3490663750314562</v>
       </c>
       <c r="H80" s="25" t="s">
         <v>42</v>
@@ -12470,11 +12491,15 @@
       </c>
       <c r="J80" s="27">
         <f>G80*I80</f>
-        <v>61501.679769338611</v>
+        <v>91190.116568646801</v>
       </c>
       <c r="K80" s="24"/>
-    </row>
-    <row r="81" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N80" s="1">
+        <f>G80*560</f>
+        <v>3555.4771700176157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="21"/>
       <c r="B81" s="39" t="s">
         <v>39</v>
@@ -12488,11 +12513,11 @@
       <c r="I81" s="26"/>
       <c r="J81" s="27">
         <f>0.13*G80*10311.74</f>
-        <v>5740.1650570508991</v>
+        <v>8511.0898212686934</v>
       </c>
       <c r="K81" s="24"/>
     </row>
-    <row r="82" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="21"/>
       <c r="B82" s="39"/>
       <c r="C82" s="22"/>
@@ -12505,7 +12530,7 @@
       <c r="J82" s="27"/>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:31" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A83" s="21">
         <v>9</v>
       </c>
@@ -12513,14 +12538,14 @@
         <v>35</v>
       </c>
       <c r="C83" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" s="23"/>
       <c r="E83" s="24"/>
       <c r="F83" s="24"/>
       <c r="G83" s="36">
         <f>PRODUCT(C83:F83)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" s="25" t="s">
         <v>36</v>
@@ -12530,11 +12555,11 @@
       </c>
       <c r="J83" s="27">
         <f>G83*I83</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="21"/>
       <c r="B84" s="39"/>
       <c r="C84" s="22"/>
@@ -12547,7 +12572,7 @@
       <c r="J84" s="27"/>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="21">
         <v>10</v>
       </c>
@@ -12568,15 +12593,15 @@
         <v>55</v>
       </c>
       <c r="I85" s="26">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="J85" s="27">
         <f>G85*I85</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="21"/>
       <c r="B86" s="39"/>
       <c r="C86" s="22"/>
@@ -12589,7 +12614,7 @@
       <c r="J86" s="27"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A87" s="9"/>
       <c r="B87" s="20" t="s">
         <v>16</v>
@@ -12603,14 +12628,14 @@
       <c r="I87" s="7"/>
       <c r="J87" s="7">
         <f>SUM(J10:J86)</f>
-        <v>335678.96121266932</v>
+        <v>440982.66964886279</v>
       </c>
       <c r="K87" s="4"/>
       <c r="M87" s="29"/>
       <c r="P87" s="32"/>
       <c r="Q87" s="32"/>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
       <c r="M88" s="29"/>
       <c r="N88" s="30"/>
       <c r="O88" s="30"/>
@@ -12630,15 +12655,15 @@
       <c r="AD88" s="29"/>
       <c r="AE88" s="29"/>
     </row>
-    <row r="89" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B89" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="58">
+      <c r="C89" s="64">
         <f>J87</f>
-        <v>335678.96121266932</v>
-      </c>
-      <c r="D89" s="59"/>
+        <v>440982.66964886279</v>
+      </c>
+      <c r="D89" s="65"/>
       <c r="E89" s="10">
         <v>100</v>
       </c>
@@ -12668,14 +12693,14 @@
       <c r="AD89" s="12"/>
       <c r="AE89" s="12"/>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B90" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C90" s="62">
+      <c r="C90" s="67">
         <v>400000</v>
       </c>
-      <c r="D90" s="63"/>
+      <c r="D90" s="68"/>
       <c r="E90" s="10"/>
       <c r="M90" s="29"/>
       <c r="N90" s="30"/>
@@ -12697,18 +12722,18 @@
       <c r="AD90" s="29"/>
       <c r="AE90" s="29"/>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B91" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C91" s="62">
+      <c r="C91" s="67">
         <f>C90-C93-C94</f>
         <v>380000</v>
       </c>
-      <c r="D91" s="63"/>
+      <c r="D91" s="68"/>
       <c r="E91" s="10">
         <f>C91/C89*100</f>
-        <v>113.20340084085612</v>
+        <v>86.171186795748483</v>
       </c>
       <c r="M91" s="29"/>
       <c r="N91" s="29"/>
@@ -12730,18 +12755,18 @@
       <c r="AD91" s="29"/>
       <c r="AE91" s="29"/>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B92" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C92" s="64">
+      <c r="C92" s="69">
         <f>C89-C91</f>
-        <v>-44321.038787330675</v>
-      </c>
-      <c r="D92" s="64"/>
+        <v>60982.669648862793</v>
+      </c>
+      <c r="D92" s="69"/>
       <c r="E92" s="10">
         <f>100-E91</f>
-        <v>-13.203400840856119</v>
+        <v>13.828813204251517</v>
       </c>
       <c r="M92" s="29"/>
       <c r="N92" s="29"/>
@@ -12763,15 +12788,15 @@
       <c r="AD92" s="29"/>
       <c r="AE92" s="29"/>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B93" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C93" s="58">
+      <c r="C93" s="64">
         <f>C90*0.03</f>
         <v>12000</v>
       </c>
-      <c r="D93" s="59"/>
+      <c r="D93" s="65"/>
       <c r="E93" s="10">
         <v>3</v>
       </c>
@@ -12795,15 +12820,15 @@
       <c r="AD93" s="29"/>
       <c r="AE93" s="29"/>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B94" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C94" s="58">
+      <c r="C94" s="64">
         <f>C90*0.02</f>
         <v>8000</v>
       </c>
-      <c r="D94" s="59"/>
+      <c r="D94" s="65"/>
       <c r="E94" s="10">
         <v>2</v>
       </c>
@@ -12829,13 +12854,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C93:D93"/>
     <mergeCell ref="C94:D94"/>
     <mergeCell ref="A7:F7"/>
@@ -12844,6 +12862,13 @@
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="C91:D91"/>
     <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
